--- a/tv_database_gf.xlsx
+++ b/tv_database_gf.xlsx
@@ -44,45 +44,6 @@
   </si>
   <si>
     <t>total_up</t>
-  </si>
-  <si>
-    <t>01:00:00</t>
-  </si>
-  <si>
-    <t>01:30:00</t>
-  </si>
-  <si>
-    <t>02:00:00</t>
-  </si>
-  <si>
-    <t>02:30:00</t>
-  </si>
-  <si>
-    <t>03:00:00</t>
-  </si>
-  <si>
-    <t>03:30:00</t>
-  </si>
-  <si>
-    <t>04:00:00</t>
-  </si>
-  <si>
-    <t>04:30:00</t>
-  </si>
-  <si>
-    <t>13:00:00</t>
-  </si>
-  <si>
-    <t>13:30:00</t>
-  </si>
-  <si>
-    <t>14:00:00</t>
-  </si>
-  <si>
-    <t>14:30:00</t>
-  </si>
-  <si>
-    <t>15:00:00</t>
   </si>
   <si>
     <t>15:30:00</t>
@@ -137,6 +98,45 @@
   </si>
   <si>
     <t>00:00:00</t>
+  </si>
+  <si>
+    <t>01:00:00</t>
+  </si>
+  <si>
+    <t>01:30:00</t>
+  </si>
+  <si>
+    <t>02:00:00</t>
+  </si>
+  <si>
+    <t>02:30:00</t>
+  </si>
+  <si>
+    <t>03:00:00</t>
+  </si>
+  <si>
+    <t>03:30:00</t>
+  </si>
+  <si>
+    <t>04:00:00</t>
+  </si>
+  <si>
+    <t>04:30:00</t>
+  </si>
+  <si>
+    <t>13:00:00</t>
+  </si>
+  <si>
+    <t>13:30:00</t>
+  </si>
+  <si>
+    <t>14:00:00</t>
+  </si>
+  <si>
+    <t>14:30:00</t>
+  </si>
+  <si>
+    <t>15:00:00</t>
   </si>
   <si>
     <t>00:30:00</t>
@@ -543,7 +543,7 @@
     </row>
     <row r="2" spans="1:10">
       <c r="A2" s="2">
-        <v>45816.04166666666</v>
+        <v>45816.64583333334</v>
       </c>
       <c r="B2">
         <v>0</v>
@@ -575,7 +575,7 @@
     </row>
     <row r="3" spans="1:10">
       <c r="A3" s="2">
-        <v>45816.0625</v>
+        <v>45816.66666666666</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -607,7 +607,7 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2">
-        <v>45816.08333333334</v>
+        <v>45816.6875</v>
       </c>
       <c r="B4">
         <v>0</v>
@@ -639,7 +639,7 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2">
-        <v>45816.10416666666</v>
+        <v>45816.70833333334</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -671,7 +671,7 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2">
-        <v>45816.125</v>
+        <v>45816.72916666666</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -703,7 +703,7 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2">
-        <v>45816.14583333334</v>
+        <v>45816.75</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -735,7 +735,7 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2">
-        <v>45816.16666666666</v>
+        <v>45816.77083333334</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -767,7 +767,7 @@
     </row>
     <row r="9" spans="1:10">
       <c r="A9" s="2">
-        <v>45816.1875</v>
+        <v>45816.79166666666</v>
       </c>
       <c r="B9">
         <v>0</v>
@@ -799,7 +799,7 @@
     </row>
     <row r="10" spans="1:10">
       <c r="A10" s="2">
-        <v>45816.1875</v>
+        <v>45816.8125</v>
       </c>
       <c r="B10">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>45816</v>
       </c>
       <c r="G10" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -831,7 +831,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" s="2">
-        <v>45816.1875</v>
+        <v>45816.83333333334</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>45816</v>
       </c>
       <c r="G11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -863,7 +863,7 @@
     </row>
     <row r="12" spans="1:10">
       <c r="A12" s="2">
-        <v>45816.54166666666</v>
+        <v>45816.85416666666</v>
       </c>
       <c r="B12">
         <v>0</v>
@@ -881,7 +881,7 @@
         <v>45816</v>
       </c>
       <c r="G12" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -895,7 +895,7 @@
     </row>
     <row r="13" spans="1:10">
       <c r="A13" s="2">
-        <v>45816.54166666666</v>
+        <v>45816.875</v>
       </c>
       <c r="B13">
         <v>0</v>
@@ -913,7 +913,7 @@
         <v>45816</v>
       </c>
       <c r="G13" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -927,7 +927,7 @@
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="2">
-        <v>45816.54166666666</v>
+        <v>45816.89583333334</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>45816</v>
       </c>
       <c r="G14" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -959,7 +959,7 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="2">
-        <v>45816.5625</v>
+        <v>45816.91666666666</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -977,7 +977,7 @@
         <v>45816</v>
       </c>
       <c r="G15" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -991,7 +991,7 @@
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="2">
-        <v>45816.58333333334</v>
+        <v>45816.9375</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -1009,7 +1009,7 @@
         <v>45816</v>
       </c>
       <c r="G16" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1023,7 +1023,7 @@
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="2">
-        <v>45816.60416666666</v>
+        <v>45816.95833333334</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1041,7 +1041,7 @@
         <v>45816</v>
       </c>
       <c r="G17" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1055,7 +1055,7 @@
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="2">
-        <v>45816.625</v>
+        <v>45816.97916666666</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1073,7 +1073,7 @@
         <v>45816</v>
       </c>
       <c r="G18" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1087,7 +1087,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="2">
-        <v>45816.64583333334</v>
+        <v>45817</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1102,10 +1102,10 @@
         <v>0</v>
       </c>
       <c r="F19" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G19" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1119,7 +1119,7 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="2">
-        <v>45816.66666666666</v>
+        <v>45817.04166666666</v>
       </c>
       <c r="B20">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="F20" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G20" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1151,7 +1151,7 @@
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="2">
-        <v>45816.6875</v>
+        <v>45817.0625</v>
       </c>
       <c r="B21">
         <v>0</v>
@@ -1166,10 +1166,10 @@
         <v>0</v>
       </c>
       <c r="F21" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G21" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1183,7 +1183,7 @@
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="2">
-        <v>45816.70833333334</v>
+        <v>45817.08333333334</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>0</v>
       </c>
       <c r="F22" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G22" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1215,7 +1215,7 @@
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="2">
-        <v>45816.72916666666</v>
+        <v>45817.10416666666</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1230,10 +1230,10 @@
         <v>0</v>
       </c>
       <c r="F23" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G23" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1247,7 +1247,7 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="2">
-        <v>45816.75</v>
+        <v>45817.125</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -1262,10 +1262,10 @@
         <v>0</v>
       </c>
       <c r="F24" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G24" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1279,7 +1279,7 @@
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="2">
-        <v>45816.77083333334</v>
+        <v>45817.14583333334</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -1294,10 +1294,10 @@
         <v>0</v>
       </c>
       <c r="F25" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G25" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1311,7 +1311,7 @@
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="2">
-        <v>45816.79166666666</v>
+        <v>45817.16666666666</v>
       </c>
       <c r="B26">
         <v>0</v>
@@ -1326,10 +1326,10 @@
         <v>0</v>
       </c>
       <c r="F26" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G26" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H26">
         <v>0</v>
@@ -1343,7 +1343,7 @@
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="2">
-        <v>45816.8125</v>
+        <v>45817.1875</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1358,10 +1358,10 @@
         <v>0</v>
       </c>
       <c r="F27" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G27" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="H27">
         <v>0</v>
@@ -1375,7 +1375,7 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="2">
-        <v>45816.83333333334</v>
+        <v>45817.1875</v>
       </c>
       <c r="B28">
         <v>0</v>
@@ -1390,10 +1390,10 @@
         <v>0</v>
       </c>
       <c r="F28" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G28" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H28">
         <v>0</v>
@@ -1407,7 +1407,7 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2">
-        <v>45816.85416666666</v>
+        <v>45817.1875</v>
       </c>
       <c r="B29">
         <v>0</v>
@@ -1422,10 +1422,10 @@
         <v>0</v>
       </c>
       <c r="F29" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G29" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H29">
         <v>0</v>
@@ -1439,7 +1439,7 @@
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2">
-        <v>45816.875</v>
+        <v>45817.54166666666</v>
       </c>
       <c r="B30">
         <v>0</v>
@@ -1454,10 +1454,10 @@
         <v>0</v>
       </c>
       <c r="F30" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G30" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H30">
         <v>0</v>
@@ -1471,7 +1471,7 @@
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2">
-        <v>45816.89583333334</v>
+        <v>45817.54166666666</v>
       </c>
       <c r="B31">
         <v>0</v>
@@ -1486,10 +1486,10 @@
         <v>0</v>
       </c>
       <c r="F31" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G31" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H31">
         <v>0</v>
@@ -1503,7 +1503,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2">
-        <v>45816.91666666666</v>
+        <v>45817.54166666666</v>
       </c>
       <c r="B32">
         <v>0</v>
@@ -1518,7 +1518,7 @@
         <v>0</v>
       </c>
       <c r="F32" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G32" t="s">
         <v>36</v>
@@ -1535,7 +1535,7 @@
     </row>
     <row r="33" spans="1:10">
       <c r="A33" s="2">
-        <v>45816.9375</v>
+        <v>45817.5625</v>
       </c>
       <c r="B33">
         <v>0</v>
@@ -1550,7 +1550,7 @@
         <v>0</v>
       </c>
       <c r="F33" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G33" t="s">
         <v>37</v>
@@ -1567,7 +1567,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" s="2">
-        <v>45816.95833333334</v>
+        <v>45817.58333333334</v>
       </c>
       <c r="B34">
         <v>0</v>
@@ -1582,7 +1582,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G34" t="s">
         <v>38</v>
@@ -1599,7 +1599,7 @@
     </row>
     <row r="35" spans="1:10">
       <c r="A35" s="2">
-        <v>45816.97916666666</v>
+        <v>45817.60416666666</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1614,7 +1614,7 @@
         <v>0</v>
       </c>
       <c r="F35" s="3">
-        <v>45816</v>
+        <v>45817</v>
       </c>
       <c r="G35" t="s">
         <v>39</v>
@@ -1631,7 +1631,7 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="2">
-        <v>45817</v>
+        <v>45817.625</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -1663,7 +1663,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="2">
-        <v>45817.04166666666</v>
+        <v>45817.64583333334</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1695,7 +1695,7 @@
     </row>
     <row r="38" spans="1:10">
       <c r="A38" s="2">
-        <v>45817.0625</v>
+        <v>45817.66666666666</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="2">
-        <v>45817.08333333334</v>
+        <v>45817.6875</v>
       </c>
       <c r="B39">
         <v>0</v>
@@ -1759,7 +1759,7 @@
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="2">
-        <v>45817.10416666666</v>
+        <v>45817.70833333334</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -1791,7 +1791,7 @@
     </row>
     <row r="41" spans="1:10">
       <c r="A41" s="2">
-        <v>45817.125</v>
+        <v>45817.72916666666</v>
       </c>
       <c r="B41">
         <v>0</v>
@@ -1823,7 +1823,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" s="2">
-        <v>45817.14583333334</v>
+        <v>45817.75</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1855,7 +1855,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" s="2">
-        <v>45817.16666666666</v>
+        <v>45817.77083333334</v>
       </c>
       <c r="B43">
         <v>0</v>
@@ -1887,7 +1887,7 @@
     </row>
     <row r="44" spans="1:10">
       <c r="A44" s="2">
-        <v>45817.1875</v>
+        <v>45817.79166666666</v>
       </c>
       <c r="B44">
         <v>0</v>
@@ -1919,7 +1919,7 @@
     </row>
     <row r="45" spans="1:10">
       <c r="A45" s="2">
-        <v>45817.1875</v>
+        <v>45817.8125</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1937,7 +1937,7 @@
         <v>45817</v>
       </c>
       <c r="G45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H45">
         <v>0</v>
@@ -1951,7 +1951,7 @@
     </row>
     <row r="46" spans="1:10">
       <c r="A46" s="2">
-        <v>45817.1875</v>
+        <v>45817.83333333334</v>
       </c>
       <c r="B46">
         <v>0</v>
@@ -1969,7 +1969,7 @@
         <v>45817</v>
       </c>
       <c r="G46" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H46">
         <v>0</v>
@@ -1983,7 +1983,7 @@
     </row>
     <row r="47" spans="1:10">
       <c r="A47" s="2">
-        <v>45817.54166666666</v>
+        <v>45817.85416666666</v>
       </c>
       <c r="B47">
         <v>0</v>
@@ -2001,7 +2001,7 @@
         <v>45817</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H47">
         <v>0</v>
@@ -2015,7 +2015,7 @@
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="2">
-        <v>45817.54166666666</v>
+        <v>45817.875</v>
       </c>
       <c r="B48">
         <v>0</v>
@@ -2033,7 +2033,7 @@
         <v>45817</v>
       </c>
       <c r="G48" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H48">
         <v>0</v>
@@ -2047,7 +2047,7 @@
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="2">
-        <v>45817.54166666666</v>
+        <v>45817.89583333334</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>45817</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H49">
         <v>0</v>
@@ -2079,7 +2079,7 @@
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="2">
-        <v>45817.5625</v>
+        <v>45817.91666666666</v>
       </c>
       <c r="B50">
         <v>0</v>
@@ -2097,7 +2097,7 @@
         <v>45817</v>
       </c>
       <c r="G50" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H50">
         <v>0</v>
@@ -2111,7 +2111,7 @@
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="2">
-        <v>45817.58333333334</v>
+        <v>45817.9375</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -2129,7 +2129,7 @@
         <v>45817</v>
       </c>
       <c r="G51" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H51">
         <v>0</v>
@@ -2143,7 +2143,7 @@
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="2">
-        <v>45817.60416666666</v>
+        <v>45817.95833333334</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -2161,7 +2161,7 @@
         <v>45817</v>
       </c>
       <c r="G52" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H52">
         <v>0</v>
@@ -2175,7 +2175,7 @@
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="2">
-        <v>45817.625</v>
+        <v>45817.97916666666</v>
       </c>
       <c r="B53">
         <v>0</v>
@@ -2193,7 +2193,7 @@
         <v>45817</v>
       </c>
       <c r="G53" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H53">
         <v>0</v>
@@ -2207,7 +2207,7 @@
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="2">
-        <v>45817.64583333334</v>
+        <v>45818</v>
       </c>
       <c r="B54">
         <v>0</v>
@@ -2222,10 +2222,10 @@
         <v>0</v>
       </c>
       <c r="F54" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G54" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H54">
         <v>0</v>
@@ -2239,7 +2239,7 @@
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="2">
-        <v>45817.66666666666</v>
+        <v>45818.02083333334</v>
       </c>
       <c r="B55">
         <v>0</v>
@@ -2254,10 +2254,10 @@
         <v>0</v>
       </c>
       <c r="F55" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G55" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H55">
         <v>0</v>
@@ -2271,7 +2271,7 @@
     </row>
     <row r="56" spans="1:10">
       <c r="A56" s="2">
-        <v>45817.6875</v>
+        <v>45818.04166666666</v>
       </c>
       <c r="B56">
         <v>0</v>
@@ -2286,10 +2286,10 @@
         <v>0</v>
       </c>
       <c r="F56" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G56" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H56">
         <v>0</v>
@@ -2303,7 +2303,7 @@
     </row>
     <row r="57" spans="1:10">
       <c r="A57" s="2">
-        <v>45817.70833333334</v>
+        <v>45818.0625</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -2318,10 +2318,10 @@
         <v>0</v>
       </c>
       <c r="F57" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G57" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H57">
         <v>0</v>
@@ -2335,7 +2335,7 @@
     </row>
     <row r="58" spans="1:10">
       <c r="A58" s="2">
-        <v>45817.72916666666</v>
+        <v>45818.08333333334</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -2350,10 +2350,10 @@
         <v>0</v>
       </c>
       <c r="F58" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G58" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H58">
         <v>0</v>
@@ -2367,7 +2367,7 @@
     </row>
     <row r="59" spans="1:10">
       <c r="A59" s="2">
-        <v>45817.75</v>
+        <v>45818.10416666666</v>
       </c>
       <c r="B59">
         <v>0</v>
@@ -2382,10 +2382,10 @@
         <v>0</v>
       </c>
       <c r="F59" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G59" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H59">
         <v>0</v>
@@ -2399,7 +2399,7 @@
     </row>
     <row r="60" spans="1:10">
       <c r="A60" s="2">
-        <v>45817.77083333334</v>
+        <v>45818.125</v>
       </c>
       <c r="B60">
         <v>0</v>
@@ -2414,10 +2414,10 @@
         <v>0</v>
       </c>
       <c r="F60" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G60" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H60">
         <v>0</v>
@@ -2431,7 +2431,7 @@
     </row>
     <row r="61" spans="1:10">
       <c r="A61" s="2">
-        <v>45817.79166666666</v>
+        <v>45818.14583333334</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -2446,10 +2446,10 @@
         <v>0</v>
       </c>
       <c r="F61" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G61" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H61">
         <v>0</v>
@@ -2463,7 +2463,7 @@
     </row>
     <row r="62" spans="1:10">
       <c r="A62" s="2">
-        <v>45817.8125</v>
+        <v>45818.16666666666</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -2478,10 +2478,10 @@
         <v>0</v>
       </c>
       <c r="F62" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G62" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H62">
         <v>0</v>
@@ -2495,7 +2495,7 @@
     </row>
     <row r="63" spans="1:10">
       <c r="A63" s="2">
-        <v>45817.83333333334</v>
+        <v>45818.1875</v>
       </c>
       <c r="B63">
         <v>0</v>
@@ -2510,10 +2510,10 @@
         <v>0</v>
       </c>
       <c r="F63" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G63" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H63">
         <v>0</v>
@@ -2527,7 +2527,7 @@
     </row>
     <row r="64" spans="1:10">
       <c r="A64" s="2">
-        <v>45817.85416666666</v>
+        <v>45818.1875</v>
       </c>
       <c r="B64">
         <v>0</v>
@@ -2542,10 +2542,10 @@
         <v>0</v>
       </c>
       <c r="F64" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G64" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H64">
         <v>0</v>
@@ -2559,7 +2559,7 @@
     </row>
     <row r="65" spans="1:10">
       <c r="A65" s="2">
-        <v>45817.875</v>
+        <v>45818.1875</v>
       </c>
       <c r="B65">
         <v>0</v>
@@ -2574,10 +2574,10 @@
         <v>0</v>
       </c>
       <c r="F65" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G65" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H65">
         <v>0</v>
@@ -2591,7 +2591,7 @@
     </row>
     <row r="66" spans="1:10">
       <c r="A66" s="2">
-        <v>45817.89583333334</v>
+        <v>45818.54166666666</v>
       </c>
       <c r="B66">
         <v>0</v>
@@ -2606,10 +2606,10 @@
         <v>0</v>
       </c>
       <c r="F66" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G66" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="H66">
         <v>0</v>
@@ -2623,7 +2623,7 @@
     </row>
     <row r="67" spans="1:10">
       <c r="A67" s="2">
-        <v>45817.91666666666</v>
+        <v>45818.54166666666</v>
       </c>
       <c r="B67">
         <v>0</v>
@@ -2638,7 +2638,7 @@
         <v>0</v>
       </c>
       <c r="F67" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G67" t="s">
         <v>36</v>
@@ -2655,7 +2655,7 @@
     </row>
     <row r="68" spans="1:10">
       <c r="A68" s="2">
-        <v>45817.9375</v>
+        <v>45818.54166666666</v>
       </c>
       <c r="B68">
         <v>0</v>
@@ -2670,10 +2670,10 @@
         <v>0</v>
       </c>
       <c r="F68" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G68" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H68">
         <v>0</v>
@@ -2687,7 +2687,7 @@
     </row>
     <row r="69" spans="1:10">
       <c r="A69" s="2">
-        <v>45817.95833333334</v>
+        <v>45818.5625</v>
       </c>
       <c r="B69">
         <v>0</v>
@@ -2702,10 +2702,10 @@
         <v>0</v>
       </c>
       <c r="F69" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G69" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H69">
         <v>0</v>
@@ -2719,7 +2719,7 @@
     </row>
     <row r="70" spans="1:10">
       <c r="A70" s="2">
-        <v>45817.97916666666</v>
+        <v>45818.58333333334</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>0</v>
       </c>
       <c r="F70" s="3">
-        <v>45817</v>
+        <v>45818</v>
       </c>
       <c r="G70" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H70">
         <v>0</v>
@@ -2751,7 +2751,7 @@
     </row>
     <row r="71" spans="1:10">
       <c r="A71" s="2">
-        <v>45818</v>
+        <v>45818.60416666666</v>
       </c>
       <c r="B71">
         <v>0</v>
@@ -2769,7 +2769,7 @@
         <v>45818</v>
       </c>
       <c r="G71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H71">
         <v>0</v>
@@ -2783,7 +2783,7 @@
     </row>
     <row r="72" spans="1:10">
       <c r="A72" s="2">
-        <v>45818.02083333334</v>
+        <v>45818.625</v>
       </c>
       <c r="B72">
         <v>0</v>
@@ -2801,7 +2801,7 @@
         <v>45818</v>
       </c>
       <c r="G72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H72">
         <v>0</v>
@@ -2815,7 +2815,7 @@
     </row>
     <row r="73" spans="1:10">
       <c r="A73" s="2">
-        <v>45818.04166666666</v>
+        <v>45818.64583333334</v>
       </c>
       <c r="B73">
         <v>0</v>
@@ -2847,7 +2847,7 @@
     </row>
     <row r="74" spans="1:10">
       <c r="A74" s="2">
-        <v>45818.0625</v>
+        <v>45818.66666666666</v>
       </c>
       <c r="B74">
         <v>0</v>
@@ -2879,7 +2879,7 @@
     </row>
     <row r="75" spans="1:10">
       <c r="A75" s="2">
-        <v>45818.08333333334</v>
+        <v>45818.6875</v>
       </c>
       <c r="B75">
         <v>0</v>
@@ -2911,7 +2911,7 @@
     </row>
     <row r="76" spans="1:10">
       <c r="A76" s="2">
-        <v>45818.10416666666</v>
+        <v>45818.70833333334</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -2943,7 +2943,7 @@
     </row>
     <row r="77" spans="1:10">
       <c r="A77" s="2">
-        <v>45818.125</v>
+        <v>45818.72916666666</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -2975,7 +2975,7 @@
     </row>
     <row r="78" spans="1:10">
       <c r="A78" s="2">
-        <v>45818.14583333334</v>
+        <v>45818.75</v>
       </c>
       <c r="B78">
         <v>0</v>
@@ -3007,7 +3007,7 @@
     </row>
     <row r="79" spans="1:10">
       <c r="A79" s="2">
-        <v>45818.16666666666</v>
+        <v>45818.77083333334</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -3039,7 +3039,7 @@
     </row>
     <row r="80" spans="1:10">
       <c r="A80" s="2">
-        <v>45818.1875</v>
+        <v>45818.79166666666</v>
       </c>
       <c r="B80">
         <v>0</v>
@@ -3071,7 +3071,7 @@
     </row>
     <row r="81" spans="1:10">
       <c r="A81" s="2">
-        <v>45818.1875</v>
+        <v>45818.8125</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -3089,7 +3089,7 @@
         <v>45818</v>
       </c>
       <c r="G81" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H81">
         <v>0</v>
@@ -3103,7 +3103,7 @@
     </row>
     <row r="82" spans="1:10">
       <c r="A82" s="2">
-        <v>45818.1875</v>
+        <v>45818.83333333334</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -3121,7 +3121,7 @@
         <v>45818</v>
       </c>
       <c r="G82" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H82">
         <v>0</v>
@@ -3135,7 +3135,7 @@
     </row>
     <row r="83" spans="1:10">
       <c r="A83" s="2">
-        <v>45818.54166666666</v>
+        <v>45818.85416666666</v>
       </c>
       <c r="B83">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>45818</v>
       </c>
       <c r="G83" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -3167,7 +3167,7 @@
     </row>
     <row r="84" spans="1:10">
       <c r="A84" s="2">
-        <v>45818.54166666666</v>
+        <v>45818.875</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -3185,7 +3185,7 @@
         <v>45818</v>
       </c>
       <c r="G84" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H84">
         <v>0</v>
@@ -3199,7 +3199,7 @@
     </row>
     <row r="85" spans="1:10">
       <c r="A85" s="2">
-        <v>45818.54166666666</v>
+        <v>45818.89583333334</v>
       </c>
       <c r="B85">
         <v>0</v>
@@ -3217,7 +3217,7 @@
         <v>45818</v>
       </c>
       <c r="G85" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H85">
         <v>0</v>
@@ -3231,7 +3231,7 @@
     </row>
     <row r="86" spans="1:10">
       <c r="A86" s="2">
-        <v>45818.5625</v>
+        <v>45818.91666666666</v>
       </c>
       <c r="B86">
         <v>0</v>
@@ -3249,7 +3249,7 @@
         <v>45818</v>
       </c>
       <c r="G86" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H86">
         <v>0</v>
@@ -3263,7 +3263,7 @@
     </row>
     <row r="87" spans="1:10">
       <c r="A87" s="2">
-        <v>45818.58333333334</v>
+        <v>45818.9375</v>
       </c>
       <c r="B87">
         <v>0</v>
@@ -3281,7 +3281,7 @@
         <v>45818</v>
       </c>
       <c r="G87" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H87">
         <v>0</v>
@@ -3295,7 +3295,7 @@
     </row>
     <row r="88" spans="1:10">
       <c r="A88" s="2">
-        <v>45818.60416666666</v>
+        <v>45818.95833333334</v>
       </c>
       <c r="B88">
         <v>0</v>
@@ -3313,7 +3313,7 @@
         <v>45818</v>
       </c>
       <c r="G88" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H88">
         <v>0</v>
@@ -3327,7 +3327,7 @@
     </row>
     <row r="89" spans="1:10">
       <c r="A89" s="2">
-        <v>45818.625</v>
+        <v>45818.97916666666</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -3345,7 +3345,7 @@
         <v>45818</v>
       </c>
       <c r="G89" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H89">
         <v>0</v>
@@ -3359,7 +3359,7 @@
     </row>
     <row r="90" spans="1:10">
       <c r="A90" s="2">
-        <v>45818.64583333334</v>
+        <v>45819</v>
       </c>
       <c r="B90">
         <v>0</v>
@@ -3374,10 +3374,10 @@
         <v>0</v>
       </c>
       <c r="F90" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G90" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H90">
         <v>0</v>
@@ -3391,7 +3391,7 @@
     </row>
     <row r="91" spans="1:10">
       <c r="A91" s="2">
-        <v>45818.66666666666</v>
+        <v>45819.02083333334</v>
       </c>
       <c r="B91">
         <v>0</v>
@@ -3406,10 +3406,10 @@
         <v>0</v>
       </c>
       <c r="F91" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G91" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H91">
         <v>0</v>
@@ -3423,7 +3423,7 @@
     </row>
     <row r="92" spans="1:10">
       <c r="A92" s="2">
-        <v>45818.6875</v>
+        <v>45819.04166666666</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -3438,10 +3438,10 @@
         <v>0</v>
       </c>
       <c r="F92" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G92" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -3455,7 +3455,7 @@
     </row>
     <row r="93" spans="1:10">
       <c r="A93" s="2">
-        <v>45818.70833333334</v>
+        <v>45819.0625</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -3470,10 +3470,10 @@
         <v>0</v>
       </c>
       <c r="F93" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G93" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H93">
         <v>0</v>
@@ -3487,7 +3487,7 @@
     </row>
     <row r="94" spans="1:10">
       <c r="A94" s="2">
-        <v>45818.72916666666</v>
+        <v>45819.08333333334</v>
       </c>
       <c r="B94">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>0</v>
       </c>
       <c r="F94" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G94" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H94">
         <v>0</v>
@@ -3519,7 +3519,7 @@
     </row>
     <row r="95" spans="1:10">
       <c r="A95" s="2">
-        <v>45818.75</v>
+        <v>45819.10416666666</v>
       </c>
       <c r="B95">
         <v>0</v>
@@ -3534,10 +3534,10 @@
         <v>0</v>
       </c>
       <c r="F95" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G95" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H95">
         <v>0</v>
@@ -3551,7 +3551,7 @@
     </row>
     <row r="96" spans="1:10">
       <c r="A96" s="2">
-        <v>45818.77083333334</v>
+        <v>45819.125</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -3566,10 +3566,10 @@
         <v>0</v>
       </c>
       <c r="F96" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G96" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H96">
         <v>0</v>
@@ -3583,7 +3583,7 @@
     </row>
     <row r="97" spans="1:10">
       <c r="A97" s="2">
-        <v>45818.79166666666</v>
+        <v>45819.14583333334</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -3598,10 +3598,10 @@
         <v>0</v>
       </c>
       <c r="F97" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G97" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H97">
         <v>0</v>
@@ -3615,7 +3615,7 @@
     </row>
     <row r="98" spans="1:10">
       <c r="A98" s="2">
-        <v>45818.8125</v>
+        <v>45819.16666666666</v>
       </c>
       <c r="B98">
         <v>0</v>
@@ -3630,10 +3630,10 @@
         <v>0</v>
       </c>
       <c r="F98" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G98" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H98">
         <v>0</v>
@@ -3647,7 +3647,7 @@
     </row>
     <row r="99" spans="1:10">
       <c r="A99" s="2">
-        <v>45818.83333333334</v>
+        <v>45819.54166666666</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -3662,10 +3662,10 @@
         <v>0</v>
       </c>
       <c r="F99" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G99" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="H99">
         <v>0</v>
@@ -3679,7 +3679,7 @@
     </row>
     <row r="100" spans="1:10">
       <c r="A100" s="2">
-        <v>45818.85416666666</v>
+        <v>45819.54166666666</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -3694,10 +3694,10 @@
         <v>0</v>
       </c>
       <c r="F100" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G100" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H100">
         <v>0</v>
@@ -3711,7 +3711,7 @@
     </row>
     <row r="101" spans="1:10">
       <c r="A101" s="2">
-        <v>45818.875</v>
+        <v>45819.54166666666</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -3726,10 +3726,10 @@
         <v>0</v>
       </c>
       <c r="F101" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G101" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H101">
         <v>0</v>
@@ -3743,7 +3743,7 @@
     </row>
     <row r="102" spans="1:10">
       <c r="A102" s="2">
-        <v>45818.89583333334</v>
+        <v>45819.5625</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -3758,10 +3758,10 @@
         <v>0</v>
       </c>
       <c r="F102" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G102" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H102">
         <v>0</v>
@@ -3775,7 +3775,7 @@
     </row>
     <row r="103" spans="1:10">
       <c r="A103" s="2">
-        <v>45818.91666666666</v>
+        <v>45819.58333333334</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -3790,10 +3790,10 @@
         <v>0</v>
       </c>
       <c r="F103" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G103" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="H103">
         <v>0</v>
@@ -3807,7 +3807,7 @@
     </row>
     <row r="104" spans="1:10">
       <c r="A104" s="2">
-        <v>45818.9375</v>
+        <v>45819.60416666666</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -3822,10 +3822,10 @@
         <v>0</v>
       </c>
       <c r="F104" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G104" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="H104">
         <v>0</v>
@@ -3839,7 +3839,7 @@
     </row>
     <row r="105" spans="1:10">
       <c r="A105" s="2">
-        <v>45818.95833333334</v>
+        <v>45819.625</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -3854,10 +3854,10 @@
         <v>0</v>
       </c>
       <c r="F105" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G105" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H105">
         <v>0</v>
@@ -3871,7 +3871,7 @@
     </row>
     <row r="106" spans="1:10">
       <c r="A106" s="2">
-        <v>45818.97916666666</v>
+        <v>45819.64583333334</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -3886,10 +3886,10 @@
         <v>0</v>
       </c>
       <c r="F106" s="3">
-        <v>45818</v>
+        <v>45819</v>
       </c>
       <c r="G106" t="s">
-        <v>39</v>
+        <v>10</v>
       </c>
       <c r="H106">
         <v>0</v>
@@ -3903,7 +3903,7 @@
     </row>
     <row r="107" spans="1:10">
       <c r="A107" s="2">
-        <v>45819</v>
+        <v>45819.66666666666</v>
       </c>
       <c r="B107">
         <v>0</v>
@@ -3921,7 +3921,7 @@
         <v>45819</v>
       </c>
       <c r="G107" t="s">
-        <v>40</v>
+        <v>11</v>
       </c>
       <c r="H107">
         <v>0</v>
@@ -3935,7 +3935,7 @@
     </row>
     <row r="108" spans="1:10">
       <c r="A108" s="2">
-        <v>45819.02083333334</v>
+        <v>45819.6875</v>
       </c>
       <c r="B108">
         <v>0</v>
@@ -3953,7 +3953,7 @@
         <v>45819</v>
       </c>
       <c r="G108" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="H108">
         <v>0</v>
@@ -3967,7 +3967,7 @@
     </row>
     <row r="109" spans="1:10">
       <c r="A109" s="2">
-        <v>45819.04166666666</v>
+        <v>45819.70833333334</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -3985,7 +3985,7 @@
         <v>45819</v>
       </c>
       <c r="G109" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H109">
         <v>0</v>
@@ -3999,7 +3999,7 @@
     </row>
     <row r="110" spans="1:10">
       <c r="A110" s="2">
-        <v>45819.0625</v>
+        <v>45819.72916666666</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4017,7 +4017,7 @@
         <v>45819</v>
       </c>
       <c r="G110" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H110">
         <v>0</v>
@@ -4031,7 +4031,7 @@
     </row>
     <row r="111" spans="1:10">
       <c r="A111" s="2">
-        <v>45819.08333333334</v>
+        <v>45819.75</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4049,7 +4049,7 @@
         <v>45819</v>
       </c>
       <c r="G111" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="H111">
         <v>0</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="112" spans="1:10">
       <c r="A112" s="2">
-        <v>45819.10416666666</v>
+        <v>45819.77083333334</v>
       </c>
       <c r="B112">
         <v>0</v>
@@ -4081,7 +4081,7 @@
         <v>45819</v>
       </c>
       <c r="G112" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H112">
         <v>0</v>
@@ -4095,7 +4095,7 @@
     </row>
     <row r="113" spans="1:10">
       <c r="A113" s="2">
-        <v>45819.125</v>
+        <v>45819.79166666666</v>
       </c>
       <c r="B113">
         <v>0</v>
@@ -4113,7 +4113,7 @@
         <v>45819</v>
       </c>
       <c r="G113" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="H113">
         <v>0</v>
@@ -4127,7 +4127,7 @@
     </row>
     <row r="114" spans="1:10">
       <c r="A114" s="2">
-        <v>45819.14583333334</v>
+        <v>45819.8125</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4145,7 +4145,7 @@
         <v>45819</v>
       </c>
       <c r="G114" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="H114">
         <v>0</v>
@@ -4159,7 +4159,7 @@
     </row>
     <row r="115" spans="1:10">
       <c r="A115" s="2">
-        <v>45819.16666666666</v>
+        <v>45819.83333333334</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4177,7 +4177,7 @@
         <v>45819</v>
       </c>
       <c r="G115" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H115">
         <v>0</v>
@@ -4191,7 +4191,7 @@
     </row>
     <row r="116" spans="1:10">
       <c r="A116" s="2">
-        <v>45819.54166666666</v>
+        <v>45819.85416666666</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4209,7 +4209,7 @@
         <v>45819</v>
       </c>
       <c r="G116" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H116">
         <v>0</v>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="117" spans="1:10">
       <c r="A117" s="2">
-        <v>45819.54166666666</v>
+        <v>45819.875</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4241,7 +4241,7 @@
         <v>45819</v>
       </c>
       <c r="G117" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H117">
         <v>0</v>
@@ -4255,7 +4255,7 @@
     </row>
     <row r="118" spans="1:10">
       <c r="A118" s="2">
-        <v>45819.54166666666</v>
+        <v>45819.89583333334</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4273,7 +4273,7 @@
         <v>45819</v>
       </c>
       <c r="G118" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H118">
         <v>0</v>
@@ -4287,7 +4287,7 @@
     </row>
     <row r="119" spans="1:10">
       <c r="A119" s="2">
-        <v>45819.5625</v>
+        <v>45819.91666666666</v>
       </c>
       <c r="B119">
         <v>0</v>
@@ -4305,7 +4305,7 @@
         <v>45819</v>
       </c>
       <c r="G119" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H119">
         <v>0</v>
@@ -4319,7 +4319,7 @@
     </row>
     <row r="120" spans="1:10">
       <c r="A120" s="2">
-        <v>45819.58333333334</v>
+        <v>45819.9375</v>
       </c>
       <c r="B120">
         <v>0</v>
@@ -4337,7 +4337,7 @@
         <v>45819</v>
       </c>
       <c r="G120" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H120">
         <v>0</v>
@@ -4351,7 +4351,7 @@
     </row>
     <row r="121" spans="1:10">
       <c r="A121" s="2">
-        <v>45819.60416666666</v>
+        <v>45819.95833333334</v>
       </c>
       <c r="B121">
         <v>0</v>
@@ -4369,7 +4369,7 @@
         <v>45819</v>
       </c>
       <c r="G121" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H121">
         <v>0</v>
@@ -4383,7 +4383,7 @@
     </row>
     <row r="122" spans="1:10">
       <c r="A122" s="2">
-        <v>45819.625</v>
+        <v>45819.97916666666</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4401,7 +4401,7 @@
         <v>45819</v>
       </c>
       <c r="G122" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H122">
         <v>0</v>
@@ -4415,7 +4415,7 @@
     </row>
     <row r="123" spans="1:10">
       <c r="A123" s="2">
-        <v>45819.64583333334</v>
+        <v>45820</v>
       </c>
       <c r="B123">
         <v>0</v>
@@ -4430,10 +4430,10 @@
         <v>0</v>
       </c>
       <c r="F123" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G123" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H123">
         <v>0</v>
@@ -4447,7 +4447,7 @@
     </row>
     <row r="124" spans="1:10">
       <c r="A124" s="2">
-        <v>45819.66666666666</v>
+        <v>45820.02083333334</v>
       </c>
       <c r="B124">
         <v>0</v>
@@ -4462,10 +4462,10 @@
         <v>0</v>
       </c>
       <c r="F124" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G124" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H124">
         <v>0</v>
@@ -4479,7 +4479,7 @@
     </row>
     <row r="125" spans="1:10">
       <c r="A125" s="2">
-        <v>45819.6875</v>
+        <v>45820.04166666666</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4494,10 +4494,10 @@
         <v>0</v>
       </c>
       <c r="F125" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G125" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H125">
         <v>0</v>
@@ -4511,7 +4511,7 @@
     </row>
     <row r="126" spans="1:10">
       <c r="A126" s="2">
-        <v>45819.70833333334</v>
+        <v>45820.0625</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4526,10 +4526,10 @@
         <v>0</v>
       </c>
       <c r="F126" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G126" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H126">
         <v>0</v>
@@ -4543,7 +4543,7 @@
     </row>
     <row r="127" spans="1:10">
       <c r="A127" s="2">
-        <v>45819.72916666666</v>
+        <v>45820.08333333334</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4558,10 +4558,10 @@
         <v>0</v>
       </c>
       <c r="F127" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G127" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H127">
         <v>0</v>
@@ -4575,7 +4575,7 @@
     </row>
     <row r="128" spans="1:10">
       <c r="A128" s="2">
-        <v>45819.75</v>
+        <v>45820.10416666666</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4590,10 +4590,10 @@
         <v>0</v>
       </c>
       <c r="F128" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G128" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H128">
         <v>0</v>
@@ -4607,7 +4607,7 @@
     </row>
     <row r="129" spans="1:10">
       <c r="A129" s="2">
-        <v>45819.77083333334</v>
+        <v>45820.125</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4622,10 +4622,10 @@
         <v>0</v>
       </c>
       <c r="F129" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G129" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H129">
         <v>0</v>
@@ -4639,7 +4639,7 @@
     </row>
     <row r="130" spans="1:10">
       <c r="A130" s="2">
-        <v>45819.79166666666</v>
+        <v>45820.14583333334</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4654,10 +4654,10 @@
         <v>0</v>
       </c>
       <c r="F130" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G130" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H130">
         <v>0</v>
@@ -4671,7 +4671,7 @@
     </row>
     <row r="131" spans="1:10">
       <c r="A131" s="2">
-        <v>45819.8125</v>
+        <v>45820.16666666666</v>
       </c>
       <c r="B131">
         <v>0</v>
@@ -4686,10 +4686,10 @@
         <v>0</v>
       </c>
       <c r="F131" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G131" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H131">
         <v>0</v>
@@ -4703,7 +4703,7 @@
     </row>
     <row r="132" spans="1:10">
       <c r="A132" s="2">
-        <v>45819.83333333334</v>
+        <v>45820.1875</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4718,10 +4718,10 @@
         <v>0</v>
       </c>
       <c r="F132" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G132" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="H132">
         <v>0</v>
@@ -4735,7 +4735,7 @@
     </row>
     <row r="133" spans="1:10">
       <c r="A133" s="2">
-        <v>45819.85416666666</v>
+        <v>45820.54166666666</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4750,10 +4750,10 @@
         <v>0</v>
       </c>
       <c r="F133" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G133" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="H133">
         <v>0</v>
@@ -4767,7 +4767,7 @@
     </row>
     <row r="134" spans="1:10">
       <c r="A134" s="2">
-        <v>45819.875</v>
+        <v>45820.5625</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4782,10 +4782,10 @@
         <v>0</v>
       </c>
       <c r="F134" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G134" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="H134">
         <v>0</v>
@@ -4799,7 +4799,7 @@
     </row>
     <row r="135" spans="1:10">
       <c r="A135" s="2">
-        <v>45819.89583333334</v>
+        <v>45820.58333333334</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4814,10 +4814,10 @@
         <v>0</v>
       </c>
       <c r="F135" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G135" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="H135">
         <v>0</v>
@@ -4831,7 +4831,7 @@
     </row>
     <row r="136" spans="1:10">
       <c r="A136" s="2">
-        <v>45819.91666666666</v>
+        <v>45820.60416666666</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -4846,10 +4846,10 @@
         <v>0</v>
       </c>
       <c r="F136" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G136" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="H136">
         <v>0</v>
@@ -4863,7 +4863,7 @@
     </row>
     <row r="137" spans="1:10">
       <c r="A137" s="2">
-        <v>45819.9375</v>
+        <v>45820.625</v>
       </c>
       <c r="B137">
         <v>0</v>
@@ -4878,10 +4878,10 @@
         <v>0</v>
       </c>
       <c r="F137" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G137" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="H137">
         <v>0</v>
@@ -4895,7 +4895,7 @@
     </row>
     <row r="138" spans="1:10">
       <c r="A138" s="2">
-        <v>45819.95833333334</v>
+        <v>45820.64583333334</v>
       </c>
       <c r="B138">
         <v>0</v>
@@ -4910,10 +4910,10 @@
         <v>0</v>
       </c>
       <c r="F138" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G138" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="H138">
         <v>0</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="139" spans="1:10">
       <c r="A139" s="2">
-        <v>45819.97916666666</v>
+        <v>45820.66666666666</v>
       </c>
       <c r="B139">
         <v>0</v>
@@ -4942,10 +4942,10 @@
         <v>0</v>
       </c>
       <c r="F139" s="3">
-        <v>45819</v>
+        <v>45820</v>
       </c>
       <c r="G139" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H139">
         <v>0</v>
@@ -4959,7 +4959,7 @@
     </row>
     <row r="140" spans="1:10">
       <c r="A140" s="2">
-        <v>45820</v>
+        <v>45820.6875</v>
       </c>
       <c r="B140">
         <v>0</v>
@@ -4977,7 +4977,7 @@
         <v>45820</v>
       </c>
       <c r="G140" t="s">
-        <v>40</v>
+        <v>12</v>
       </c>
       <c r="H140">
         <v>0</v>
@@ -4991,7 +4991,7 @@
     </row>
     <row r="141" spans="1:10">
       <c r="A141" s="2">
-        <v>45820.02083333334</v>
+        <v>45820.70833333334</v>
       </c>
       <c r="B141">
         <v>0</v>
@@ -5009,7 +5009,7 @@
         <v>45820</v>
       </c>
       <c r="G141" t="s">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="H141">
         <v>0</v>
@@ -5023,7 +5023,7 @@
     </row>
     <row r="142" spans="1:10">
       <c r="A142" s="2">
-        <v>45820.04166666666</v>
+        <v>45820.72916666666</v>
       </c>
       <c r="B142">
         <v>0</v>
@@ -5041,7 +5041,7 @@
         <v>45820</v>
       </c>
       <c r="G142" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="H142">
         <v>0</v>
@@ -5055,7 +5055,7 @@
     </row>
     <row r="143" spans="1:10">
       <c r="A143" s="2">
-        <v>45820.0625</v>
+        <v>45820.75</v>
       </c>
       <c r="B143">
         <v>0</v>
@@ -5073,7 +5073,7 @@
         <v>45820</v>
       </c>
       <c r="G143" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="H143">
         <v>0</v>
@@ -5087,7 +5087,7 @@
     </row>
     <row r="144" spans="1:10">
       <c r="A144" s="2">
-        <v>45820.08333333334</v>
+        <v>45820.77083333334</v>
       </c>
       <c r="B144">
         <v>0</v>
@@ -5105,7 +5105,7 @@
         <v>45820</v>
       </c>
       <c r="G144" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="H144">
         <v>0</v>
@@ -5119,7 +5119,7 @@
     </row>
     <row r="145" spans="1:10">
       <c r="A145" s="2">
-        <v>45820.10416666666</v>
+        <v>45820.79166666666</v>
       </c>
       <c r="B145">
         <v>0</v>
@@ -5137,7 +5137,7 @@
         <v>45820</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="H145">
         <v>0</v>
@@ -5151,7 +5151,7 @@
     </row>
     <row r="146" spans="1:10">
       <c r="A146" s="2">
-        <v>45820.125</v>
+        <v>45820.8125</v>
       </c>
       <c r="B146">
         <v>0</v>
@@ -5169,7 +5169,7 @@
         <v>45820</v>
       </c>
       <c r="G146" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="H146">
         <v>0</v>
@@ -5183,7 +5183,7 @@
     </row>
     <row r="147" spans="1:10">
       <c r="A147" s="2">
-        <v>45820.14583333334</v>
+        <v>45820.83333333334</v>
       </c>
       <c r="B147">
         <v>0</v>
@@ -5201,7 +5201,7 @@
         <v>45820</v>
       </c>
       <c r="G147" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="H147">
         <v>0</v>
@@ -5215,7 +5215,7 @@
     </row>
     <row r="148" spans="1:10">
       <c r="A148" s="2">
-        <v>45820.16666666666</v>
+        <v>45820.85416666666</v>
       </c>
       <c r="B148">
         <v>0</v>
@@ -5233,7 +5233,7 @@
         <v>45820</v>
       </c>
       <c r="G148" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H148">
         <v>0</v>
@@ -5247,7 +5247,7 @@
     </row>
     <row r="149" spans="1:10">
       <c r="A149" s="2">
-        <v>45820.1875</v>
+        <v>45820.875</v>
       </c>
       <c r="B149">
         <v>0</v>
@@ -5265,7 +5265,7 @@
         <v>45820</v>
       </c>
       <c r="G149" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H149">
         <v>0</v>
@@ -5279,7 +5279,7 @@
     </row>
     <row r="150" spans="1:10">
       <c r="A150" s="2">
-        <v>45820.54166666666</v>
+        <v>45820.89583333334</v>
       </c>
       <c r="B150">
         <v>0</v>
@@ -5297,7 +5297,7 @@
         <v>45820</v>
       </c>
       <c r="G150" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H150">
         <v>0</v>
@@ -5311,7 +5311,7 @@
     </row>
     <row r="151" spans="1:10">
       <c r="A151" s="2">
-        <v>45820.5625</v>
+        <v>45820.91666666666</v>
       </c>
       <c r="B151">
         <v>0</v>
@@ -5329,7 +5329,7 @@
         <v>45820</v>
       </c>
       <c r="G151" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H151">
         <v>0</v>
@@ -5343,7 +5343,7 @@
     </row>
     <row r="152" spans="1:10">
       <c r="A152" s="2">
-        <v>45820.58333333334</v>
+        <v>45820.9375</v>
       </c>
       <c r="B152">
         <v>0</v>
@@ -5361,7 +5361,7 @@
         <v>45820</v>
       </c>
       <c r="G152" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H152">
         <v>0</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="153" spans="1:10">
       <c r="A153" s="2">
-        <v>45820.60416666666</v>
+        <v>45820.95833333334</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5393,7 +5393,7 @@
         <v>45820</v>
       </c>
       <c r="G153" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H153">
         <v>0</v>
@@ -5407,7 +5407,7 @@
     </row>
     <row r="154" spans="1:10">
       <c r="A154" s="2">
-        <v>45820.625</v>
+        <v>45820.97916666666</v>
       </c>
       <c r="B154">
         <v>0</v>
@@ -5425,7 +5425,7 @@
         <v>45820</v>
       </c>
       <c r="G154" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H154">
         <v>0</v>
@@ -5439,7 +5439,7 @@
     </row>
     <row r="155" spans="1:10">
       <c r="A155" s="2">
-        <v>45820.64583333334</v>
+        <v>45821</v>
       </c>
       <c r="B155">
         <v>0</v>
@@ -5454,10 +5454,10 @@
         <v>0</v>
       </c>
       <c r="F155" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G155" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H155">
         <v>0</v>
@@ -5471,7 +5471,7 @@
     </row>
     <row r="156" spans="1:10">
       <c r="A156" s="2">
-        <v>45820.66666666666</v>
+        <v>45821.02083333334</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5486,10 +5486,10 @@
         <v>0</v>
       </c>
       <c r="F156" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G156" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H156">
         <v>0</v>
@@ -5503,7 +5503,7 @@
     </row>
     <row r="157" spans="1:10">
       <c r="A157" s="2">
-        <v>45820.6875</v>
+        <v>45821.04166666666</v>
       </c>
       <c r="B157">
         <v>0</v>
@@ -5518,10 +5518,10 @@
         <v>0</v>
       </c>
       <c r="F157" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G157" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H157">
         <v>0</v>
@@ -5535,7 +5535,7 @@
     </row>
     <row r="158" spans="1:10">
       <c r="A158" s="2">
-        <v>45820.70833333334</v>
+        <v>45821.0625</v>
       </c>
       <c r="B158">
         <v>0</v>
@@ -5550,10 +5550,10 @@
         <v>0</v>
       </c>
       <c r="F158" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G158" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H158">
         <v>0</v>
@@ -5567,7 +5567,7 @@
     </row>
     <row r="159" spans="1:10">
       <c r="A159" s="2">
-        <v>45820.72916666666</v>
+        <v>45821.08333333334</v>
       </c>
       <c r="B159">
         <v>0</v>
@@ -5582,10 +5582,10 @@
         <v>0</v>
       </c>
       <c r="F159" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G159" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H159">
         <v>0</v>
@@ -5599,7 +5599,7 @@
     </row>
     <row r="160" spans="1:10">
       <c r="A160" s="2">
-        <v>45820.75</v>
+        <v>45821.10416666666</v>
       </c>
       <c r="B160">
         <v>0</v>
@@ -5614,10 +5614,10 @@
         <v>0</v>
       </c>
       <c r="F160" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G160" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H160">
         <v>0</v>
@@ -5631,7 +5631,7 @@
     </row>
     <row r="161" spans="1:10">
       <c r="A161" s="2">
-        <v>45820.77083333334</v>
+        <v>45821.125</v>
       </c>
       <c r="B161">
         <v>0</v>
@@ -5646,10 +5646,10 @@
         <v>0</v>
       </c>
       <c r="F161" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G161" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H161">
         <v>0</v>
@@ -5663,7 +5663,7 @@
     </row>
     <row r="162" spans="1:10">
       <c r="A162" s="2">
-        <v>45820.79166666666</v>
+        <v>45821.14583333334</v>
       </c>
       <c r="B162">
         <v>0</v>
@@ -5678,10 +5678,10 @@
         <v>0</v>
       </c>
       <c r="F162" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G162" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H162">
         <v>0</v>
@@ -5695,7 +5695,7 @@
     </row>
     <row r="163" spans="1:10">
       <c r="A163" s="2">
-        <v>45820.8125</v>
+        <v>45821.16666666666</v>
       </c>
       <c r="B163">
         <v>0</v>
@@ -5710,10 +5710,10 @@
         <v>0</v>
       </c>
       <c r="F163" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G163" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H163">
         <v>0</v>
@@ -5727,7 +5727,7 @@
     </row>
     <row r="164" spans="1:10">
       <c r="A164" s="2">
-        <v>45820.83333333334</v>
+        <v>45821.16666666666</v>
       </c>
       <c r="B164">
         <v>0</v>
@@ -5742,10 +5742,10 @@
         <v>0</v>
       </c>
       <c r="F164" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G164" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H164">
         <v>0</v>
@@ -5759,7 +5759,7 @@
     </row>
     <row r="165" spans="1:10">
       <c r="A165" s="2">
-        <v>45820.85416666666</v>
+        <v>45821.16666666666</v>
       </c>
       <c r="B165">
         <v>0</v>
@@ -5774,10 +5774,10 @@
         <v>0</v>
       </c>
       <c r="F165" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G165" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H165">
         <v>0</v>
@@ -5791,7 +5791,7 @@
     </row>
     <row r="166" spans="1:10">
       <c r="A166" s="2">
-        <v>45820.875</v>
+        <v>45821.1875</v>
       </c>
       <c r="B166">
         <v>0</v>
@@ -5806,10 +5806,10 @@
         <v>0</v>
       </c>
       <c r="F166" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G166" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H166">
         <v>0</v>
@@ -5823,7 +5823,7 @@
     </row>
     <row r="167" spans="1:10">
       <c r="A167" s="2">
-        <v>45820.89583333334</v>
+        <v>45821.1875</v>
       </c>
       <c r="B167">
         <v>0</v>
@@ -5838,7 +5838,7 @@
         <v>0</v>
       </c>
       <c r="F167" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G167" t="s">
         <v>35</v>
@@ -5855,7 +5855,7 @@
     </row>
     <row r="168" spans="1:10">
       <c r="A168" s="2">
-        <v>45820.91666666666</v>
+        <v>45821.1875</v>
       </c>
       <c r="B168">
         <v>0</v>
@@ -5870,10 +5870,10 @@
         <v>0</v>
       </c>
       <c r="F168" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G168" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H168">
         <v>0</v>
@@ -5887,7 +5887,7 @@
     </row>
     <row r="169" spans="1:10">
       <c r="A169" s="2">
-        <v>45820.9375</v>
+        <v>45821.54166666666</v>
       </c>
       <c r="B169">
         <v>0</v>
@@ -5902,10 +5902,10 @@
         <v>0</v>
       </c>
       <c r="F169" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G169" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H169">
         <v>0</v>
@@ -5919,7 +5919,7 @@
     </row>
     <row r="170" spans="1:10">
       <c r="A170" s="2">
-        <v>45820.95833333334</v>
+        <v>45821.54166666666</v>
       </c>
       <c r="B170">
         <v>0</v>
@@ -5934,10 +5934,10 @@
         <v>0</v>
       </c>
       <c r="F170" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G170" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H170">
         <v>0</v>
@@ -5951,7 +5951,7 @@
     </row>
     <row r="171" spans="1:10">
       <c r="A171" s="2">
-        <v>45820.97916666666</v>
+        <v>45821.54166666666</v>
       </c>
       <c r="B171">
         <v>0</v>
@@ -5966,10 +5966,10 @@
         <v>0</v>
       </c>
       <c r="F171" s="3">
-        <v>45820</v>
+        <v>45821</v>
       </c>
       <c r="G171" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H171">
         <v>0</v>
@@ -5983,7 +5983,7 @@
     </row>
     <row r="172" spans="1:10">
       <c r="A172" s="2">
-        <v>45821</v>
+        <v>45821.5625</v>
       </c>
       <c r="B172">
         <v>0</v>
@@ -6001,7 +6001,7 @@
         <v>45821</v>
       </c>
       <c r="G172" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H172">
         <v>0</v>
@@ -6015,7 +6015,7 @@
     </row>
     <row r="173" spans="1:10">
       <c r="A173" s="2">
-        <v>45821.02083333334</v>
+        <v>45821.58333333334</v>
       </c>
       <c r="B173">
         <v>0</v>
@@ -6033,7 +6033,7 @@
         <v>45821</v>
       </c>
       <c r="G173" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H173">
         <v>0</v>
@@ -6047,7 +6047,7 @@
     </row>
     <row r="174" spans="1:10">
       <c r="A174" s="2">
-        <v>45821.04166666666</v>
+        <v>45821.60416666666</v>
       </c>
       <c r="B174">
         <v>0</v>
@@ -6065,7 +6065,7 @@
         <v>45821</v>
       </c>
       <c r="G174" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H174">
         <v>0</v>
@@ -6079,7 +6079,7 @@
     </row>
     <row r="175" spans="1:10">
       <c r="A175" s="2">
-        <v>45821.0625</v>
+        <v>45821.625</v>
       </c>
       <c r="B175">
         <v>0</v>
@@ -6097,7 +6097,7 @@
         <v>45821</v>
       </c>
       <c r="G175" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H175">
         <v>0</v>
@@ -6111,7 +6111,7 @@
     </row>
     <row r="176" spans="1:10">
       <c r="A176" s="2">
-        <v>45821.08333333334</v>
+        <v>45821.64583333334</v>
       </c>
       <c r="B176">
         <v>0</v>
@@ -6129,7 +6129,7 @@
         <v>45821</v>
       </c>
       <c r="G176" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H176">
         <v>0</v>
@@ -6143,7 +6143,7 @@
     </row>
     <row r="177" spans="1:10">
       <c r="A177" s="2">
-        <v>45821.10416666666</v>
+        <v>45821.66666666666</v>
       </c>
       <c r="B177">
         <v>0</v>
@@ -6161,7 +6161,7 @@
         <v>45821</v>
       </c>
       <c r="G177" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H177">
         <v>0</v>
@@ -6175,7 +6175,7 @@
     </row>
     <row r="178" spans="1:10">
       <c r="A178" s="2">
-        <v>45821.125</v>
+        <v>45821.6875</v>
       </c>
       <c r="B178">
         <v>0</v>
@@ -6193,7 +6193,7 @@
         <v>45821</v>
       </c>
       <c r="G178" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H178">
         <v>0</v>
@@ -6207,7 +6207,7 @@
     </row>
     <row r="179" spans="1:10">
       <c r="A179" s="2">
-        <v>45821.14583333334</v>
+        <v>45821.70833333334</v>
       </c>
       <c r="B179">
         <v>0</v>
@@ -6225,7 +6225,7 @@
         <v>45821</v>
       </c>
       <c r="G179" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H179">
         <v>0</v>
@@ -6239,7 +6239,7 @@
     </row>
     <row r="180" spans="1:10">
       <c r="A180" s="2">
-        <v>45821.16666666666</v>
+        <v>45821.72916666666</v>
       </c>
       <c r="B180">
         <v>0</v>
@@ -6257,7 +6257,7 @@
         <v>45821</v>
       </c>
       <c r="G180" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H180">
         <v>0</v>
@@ -6271,7 +6271,7 @@
     </row>
     <row r="181" spans="1:10">
       <c r="A181" s="2">
-        <v>45821.16666666666</v>
+        <v>45821.75</v>
       </c>
       <c r="B181">
         <v>0</v>
@@ -6289,7 +6289,7 @@
         <v>45821</v>
       </c>
       <c r="G181" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H181">
         <v>0</v>
@@ -6303,7 +6303,7 @@
     </row>
     <row r="182" spans="1:10">
       <c r="A182" s="2">
-        <v>45821.16666666666</v>
+        <v>45821.77083333334</v>
       </c>
       <c r="B182">
         <v>0</v>
@@ -6335,7 +6335,7 @@
     </row>
     <row r="183" spans="1:10">
       <c r="A183" s="2">
-        <v>45821.1875</v>
+        <v>45821.79166666666</v>
       </c>
       <c r="B183">
         <v>0</v>
@@ -6367,7 +6367,7 @@
     </row>
     <row r="184" spans="1:10">
       <c r="A184" s="2">
-        <v>45821.1875</v>
+        <v>45821.8125</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -6385,7 +6385,7 @@
         <v>45821</v>
       </c>
       <c r="G184" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H184">
         <v>0</v>
@@ -6399,7 +6399,7 @@
     </row>
     <row r="185" spans="1:10">
       <c r="A185" s="2">
-        <v>45821.1875</v>
+        <v>45821.83333333334</v>
       </c>
       <c r="B185">
         <v>0</v>
@@ -6417,7 +6417,7 @@
         <v>45821</v>
       </c>
       <c r="G185" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H185">
         <v>0</v>
@@ -6431,7 +6431,7 @@
     </row>
     <row r="186" spans="1:10">
       <c r="A186" s="2">
-        <v>45821.54166666666</v>
+        <v>45821.85416666666</v>
       </c>
       <c r="B186">
         <v>0</v>
@@ -6449,7 +6449,7 @@
         <v>45821</v>
       </c>
       <c r="G186" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H186">
         <v>0</v>
@@ -6463,7 +6463,7 @@
     </row>
     <row r="187" spans="1:10">
       <c r="A187" s="2">
-        <v>45821.54166666666</v>
+        <v>45821.875</v>
       </c>
       <c r="B187">
         <v>0</v>
@@ -6481,7 +6481,7 @@
         <v>45821</v>
       </c>
       <c r="G187" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H187">
         <v>0</v>
@@ -6495,7 +6495,7 @@
     </row>
     <row r="188" spans="1:10">
       <c r="A188" s="2">
-        <v>45821.54166666666</v>
+        <v>45821.89583333334</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -6513,7 +6513,7 @@
         <v>45821</v>
       </c>
       <c r="G188" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H188">
         <v>0</v>
@@ -6527,7 +6527,7 @@
     </row>
     <row r="189" spans="1:10">
       <c r="A189" s="2">
-        <v>45821.5625</v>
+        <v>45821.91666666666</v>
       </c>
       <c r="B189">
         <v>0</v>
@@ -6545,7 +6545,7 @@
         <v>45821</v>
       </c>
       <c r="G189" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H189">
         <v>0</v>
@@ -6559,7 +6559,7 @@
     </row>
     <row r="190" spans="1:10">
       <c r="A190" s="2">
-        <v>45821.58333333334</v>
+        <v>45821.9375</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -6577,7 +6577,7 @@
         <v>45821</v>
       </c>
       <c r="G190" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H190">
         <v>0</v>
@@ -6591,7 +6591,7 @@
     </row>
     <row r="191" spans="1:10">
       <c r="A191" s="2">
-        <v>45821.60416666666</v>
+        <v>45822.16666666666</v>
       </c>
       <c r="B191">
         <v>0</v>
@@ -6606,10 +6606,10 @@
         <v>0</v>
       </c>
       <c r="F191" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G191" t="s">
-        <v>21</v>
+        <v>34</v>
       </c>
       <c r="H191">
         <v>0</v>
@@ -6623,7 +6623,7 @@
     </row>
     <row r="192" spans="1:10">
       <c r="A192" s="2">
-        <v>45821.625</v>
+        <v>45822.1875</v>
       </c>
       <c r="B192">
         <v>0</v>
@@ -6638,10 +6638,10 @@
         <v>0</v>
       </c>
       <c r="F192" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G192" t="s">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="H192">
         <v>0</v>
@@ -6655,7 +6655,7 @@
     </row>
     <row r="193" spans="1:10">
       <c r="A193" s="2">
-        <v>45821.64583333334</v>
+        <v>45822.1875</v>
       </c>
       <c r="B193">
         <v>0</v>
@@ -6670,10 +6670,10 @@
         <v>0</v>
       </c>
       <c r="F193" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G193" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="H193">
         <v>0</v>
@@ -6687,7 +6687,7 @@
     </row>
     <row r="194" spans="1:10">
       <c r="A194" s="2">
-        <v>45821.66666666666</v>
+        <v>45822.1875</v>
       </c>
       <c r="B194">
         <v>0</v>
@@ -6702,10 +6702,10 @@
         <v>0</v>
       </c>
       <c r="F194" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G194" t="s">
-        <v>24</v>
+        <v>35</v>
       </c>
       <c r="H194">
         <v>0</v>
@@ -6719,7 +6719,7 @@
     </row>
     <row r="195" spans="1:10">
       <c r="A195" s="2">
-        <v>45821.6875</v>
+        <v>45822.54166666666</v>
       </c>
       <c r="B195">
         <v>0</v>
@@ -6734,10 +6734,10 @@
         <v>0</v>
       </c>
       <c r="F195" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G195" t="s">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="H195">
         <v>0</v>
@@ -6751,7 +6751,7 @@
     </row>
     <row r="196" spans="1:10">
       <c r="A196" s="2">
-        <v>45821.70833333334</v>
+        <v>45822.5625</v>
       </c>
       <c r="B196">
         <v>0</v>
@@ -6766,10 +6766,10 @@
         <v>0</v>
       </c>
       <c r="F196" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G196" t="s">
-        <v>26</v>
+        <v>37</v>
       </c>
       <c r="H196">
         <v>0</v>
@@ -6783,7 +6783,7 @@
     </row>
     <row r="197" spans="1:10">
       <c r="A197" s="2">
-        <v>45821.72916666666</v>
+        <v>45822.58333333334</v>
       </c>
       <c r="B197">
         <v>0</v>
@@ -6798,10 +6798,10 @@
         <v>0</v>
       </c>
       <c r="F197" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G197" t="s">
-        <v>27</v>
+        <v>38</v>
       </c>
       <c r="H197">
         <v>0</v>
@@ -6815,7 +6815,7 @@
     </row>
     <row r="198" spans="1:10">
       <c r="A198" s="2">
-        <v>45821.75</v>
+        <v>45822.60416666666</v>
       </c>
       <c r="B198">
         <v>0</v>
@@ -6830,10 +6830,10 @@
         <v>0</v>
       </c>
       <c r="F198" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G198" t="s">
-        <v>28</v>
+        <v>39</v>
       </c>
       <c r="H198">
         <v>0</v>
@@ -6847,7 +6847,7 @@
     </row>
     <row r="199" spans="1:10">
       <c r="A199" s="2">
-        <v>45821.77083333334</v>
+        <v>45822.625</v>
       </c>
       <c r="B199">
         <v>0</v>
@@ -6862,10 +6862,10 @@
         <v>0</v>
       </c>
       <c r="F199" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G199" t="s">
-        <v>29</v>
+        <v>40</v>
       </c>
       <c r="H199">
         <v>0</v>
@@ -6879,7 +6879,7 @@
     </row>
     <row r="200" spans="1:10">
       <c r="A200" s="2">
-        <v>45821.79166666666</v>
+        <v>45822.64583333334</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -6894,10 +6894,10 @@
         <v>0</v>
       </c>
       <c r="F200" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G200" t="s">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="H200">
         <v>0</v>
@@ -6911,7 +6911,7 @@
     </row>
     <row r="201" spans="1:10">
       <c r="A201" s="2">
-        <v>45821.8125</v>
+        <v>45822.66666666666</v>
       </c>
       <c r="B201">
         <v>0</v>
@@ -6926,10 +6926,10 @@
         <v>0</v>
       </c>
       <c r="F201" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G201" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="H201">
         <v>0</v>
@@ -6943,7 +6943,7 @@
     </row>
     <row r="202" spans="1:10">
       <c r="A202" s="2">
-        <v>45821.83333333334</v>
+        <v>45822.6875</v>
       </c>
       <c r="B202">
         <v>0</v>
@@ -6958,10 +6958,10 @@
         <v>0</v>
       </c>
       <c r="F202" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G202" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="H202">
         <v>0</v>
@@ -6975,7 +6975,7 @@
     </row>
     <row r="203" spans="1:10">
       <c r="A203" s="2">
-        <v>45821.85416666666</v>
+        <v>45822.70833333334</v>
       </c>
       <c r="B203">
         <v>0</v>
@@ -6990,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="F203" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G203" t="s">
-        <v>33</v>
+        <v>13</v>
       </c>
       <c r="H203">
         <v>0</v>
@@ -7007,7 +7007,7 @@
     </row>
     <row r="204" spans="1:10">
       <c r="A204" s="2">
-        <v>45821.875</v>
+        <v>45822.72916666666</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -7022,10 +7022,10 @@
         <v>0</v>
       </c>
       <c r="F204" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G204" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="H204">
         <v>0</v>
@@ -7039,7 +7039,7 @@
     </row>
     <row r="205" spans="1:10">
       <c r="A205" s="2">
-        <v>45821.89583333334</v>
+        <v>45822.75</v>
       </c>
       <c r="B205">
         <v>0</v>
@@ -7054,10 +7054,10 @@
         <v>0</v>
       </c>
       <c r="F205" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G205" t="s">
-        <v>35</v>
+        <v>15</v>
       </c>
       <c r="H205">
         <v>0</v>
@@ -7071,7 +7071,7 @@
     </row>
     <row r="206" spans="1:10">
       <c r="A206" s="2">
-        <v>45821.91666666666</v>
+        <v>45822.77083333334</v>
       </c>
       <c r="B206">
         <v>0</v>
@@ -7086,10 +7086,10 @@
         <v>0</v>
       </c>
       <c r="F206" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G206" t="s">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="H206">
         <v>0</v>
@@ -7103,7 +7103,7 @@
     </row>
     <row r="207" spans="1:10">
       <c r="A207" s="2">
-        <v>45821.9375</v>
+        <v>45822.79166666666</v>
       </c>
       <c r="B207">
         <v>0</v>
@@ -7118,10 +7118,10 @@
         <v>0</v>
       </c>
       <c r="F207" s="3">
-        <v>45821</v>
+        <v>45822</v>
       </c>
       <c r="G207" t="s">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="H207">
         <v>0</v>
@@ -7135,7 +7135,7 @@
     </row>
     <row r="208" spans="1:10">
       <c r="A208" s="2">
-        <v>45822.16666666666</v>
+        <v>45822.8125</v>
       </c>
       <c r="B208">
         <v>0</v>
@@ -7153,7 +7153,7 @@
         <v>45822</v>
       </c>
       <c r="G208" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H208">
         <v>0</v>
@@ -7167,7 +7167,7 @@
     </row>
     <row r="209" spans="1:10">
       <c r="A209" s="2">
-        <v>45822.1875</v>
+        <v>45822.83333333334</v>
       </c>
       <c r="B209">
         <v>0</v>
@@ -7185,7 +7185,7 @@
         <v>45822</v>
       </c>
       <c r="G209" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H209">
         <v>0</v>
@@ -7199,7 +7199,7 @@
     </row>
     <row r="210" spans="1:10">
       <c r="A210" s="2">
-        <v>45822.1875</v>
+        <v>45822.85416666666</v>
       </c>
       <c r="B210">
         <v>0</v>
@@ -7217,7 +7217,7 @@
         <v>45822</v>
       </c>
       <c r="G210" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H210">
         <v>0</v>
@@ -7231,7 +7231,7 @@
     </row>
     <row r="211" spans="1:10">
       <c r="A211" s="2">
-        <v>45822.1875</v>
+        <v>45822.875</v>
       </c>
       <c r="B211">
         <v>0</v>
@@ -7249,7 +7249,7 @@
         <v>45822</v>
       </c>
       <c r="G211" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H211">
         <v>0</v>
@@ -7263,7 +7263,7 @@
     </row>
     <row r="212" spans="1:10">
       <c r="A212" s="2">
-        <v>45822.54166666666</v>
+        <v>45822.89583333334</v>
       </c>
       <c r="B212">
         <v>0</v>
@@ -7281,7 +7281,7 @@
         <v>45822</v>
       </c>
       <c r="G212" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H212">
         <v>0</v>
@@ -7295,7 +7295,7 @@
     </row>
     <row r="213" spans="1:10">
       <c r="A213" s="2">
-        <v>45822.5625</v>
+        <v>45822.91666666666</v>
       </c>
       <c r="B213">
         <v>0</v>
@@ -7313,7 +7313,7 @@
         <v>45822</v>
       </c>
       <c r="G213" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H213">
         <v>0</v>
@@ -7327,7 +7327,7 @@
     </row>
     <row r="214" spans="1:10">
       <c r="A214" s="2">
-        <v>45822.58333333334</v>
+        <v>45822.9375</v>
       </c>
       <c r="B214">
         <v>0</v>
@@ -7345,7 +7345,7 @@
         <v>45822</v>
       </c>
       <c r="G214" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H214">
         <v>0</v>
@@ -7359,7 +7359,7 @@
     </row>
     <row r="215" spans="1:10">
       <c r="A215" s="2">
-        <v>45822.60416666666</v>
+        <v>45822.95833333334</v>
       </c>
       <c r="B215">
         <v>0</v>
@@ -7377,7 +7377,7 @@
         <v>45822</v>
       </c>
       <c r="G215" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H215">
         <v>0</v>
@@ -7391,7 +7391,7 @@
     </row>
     <row r="216" spans="1:10">
       <c r="A216" s="2">
-        <v>45822.625</v>
+        <v>45822.97916666666</v>
       </c>
       <c r="B216">
         <v>0</v>
@@ -7409,7 +7409,7 @@
         <v>45822</v>
       </c>
       <c r="G216" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H216">
         <v>0</v>
@@ -7423,7 +7423,7 @@
     </row>
     <row r="217" spans="1:10">
       <c r="A217" s="2">
-        <v>45822.64583333334</v>
+        <v>45823</v>
       </c>
       <c r="B217">
         <v>0</v>
@@ -7438,10 +7438,10 @@
         <v>0</v>
       </c>
       <c r="F217" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G217" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H217">
         <v>0</v>
@@ -7455,7 +7455,7 @@
     </row>
     <row r="218" spans="1:10">
       <c r="A218" s="2">
-        <v>45822.66666666666</v>
+        <v>45823.02083333334</v>
       </c>
       <c r="B218">
         <v>0</v>
@@ -7470,10 +7470,10 @@
         <v>0</v>
       </c>
       <c r="F218" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G218" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H218">
         <v>0</v>
@@ -7487,7 +7487,7 @@
     </row>
     <row r="219" spans="1:10">
       <c r="A219" s="2">
-        <v>45822.6875</v>
+        <v>45823.04166666666</v>
       </c>
       <c r="B219">
         <v>0</v>
@@ -7502,10 +7502,10 @@
         <v>0</v>
       </c>
       <c r="F219" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G219" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H219">
         <v>0</v>
@@ -7519,7 +7519,7 @@
     </row>
     <row r="220" spans="1:10">
       <c r="A220" s="2">
-        <v>45822.70833333334</v>
+        <v>45823.0625</v>
       </c>
       <c r="B220">
         <v>0</v>
@@ -7534,10 +7534,10 @@
         <v>0</v>
       </c>
       <c r="F220" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G220" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H220">
         <v>0</v>
@@ -7551,7 +7551,7 @@
     </row>
     <row r="221" spans="1:10">
       <c r="A221" s="2">
-        <v>45822.72916666666</v>
+        <v>45823.08333333334</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -7566,10 +7566,10 @@
         <v>0</v>
       </c>
       <c r="F221" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G221" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H221">
         <v>0</v>
@@ -7583,7 +7583,7 @@
     </row>
     <row r="222" spans="1:10">
       <c r="A222" s="2">
-        <v>45822.75</v>
+        <v>45823.10416666666</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -7598,10 +7598,10 @@
         <v>0</v>
       </c>
       <c r="F222" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G222" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H222">
         <v>0</v>
@@ -7615,7 +7615,7 @@
     </row>
     <row r="223" spans="1:10">
       <c r="A223" s="2">
-        <v>45822.77083333334</v>
+        <v>45823.125</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -7630,10 +7630,10 @@
         <v>0</v>
       </c>
       <c r="F223" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G223" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H223">
         <v>0</v>
@@ -7647,7 +7647,7 @@
     </row>
     <row r="224" spans="1:10">
       <c r="A224" s="2">
-        <v>45822.79166666666</v>
+        <v>45823.14583333334</v>
       </c>
       <c r="B224">
         <v>0</v>
@@ -7662,10 +7662,10 @@
         <v>0</v>
       </c>
       <c r="F224" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G224" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H224">
         <v>0</v>
@@ -7679,7 +7679,7 @@
     </row>
     <row r="225" spans="1:10">
       <c r="A225" s="2">
-        <v>45822.8125</v>
+        <v>45823.16666666666</v>
       </c>
       <c r="B225">
         <v>0</v>
@@ -7694,10 +7694,10 @@
         <v>0</v>
       </c>
       <c r="F225" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G225" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H225">
         <v>0</v>
@@ -7711,7 +7711,7 @@
     </row>
     <row r="226" spans="1:10">
       <c r="A226" s="2">
-        <v>45822.83333333334</v>
+        <v>45823.16666666666</v>
       </c>
       <c r="B226">
         <v>0</v>
@@ -7726,10 +7726,10 @@
         <v>0</v>
       </c>
       <c r="F226" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G226" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H226">
         <v>0</v>
@@ -7743,7 +7743,7 @@
     </row>
     <row r="227" spans="1:10">
       <c r="A227" s="2">
-        <v>45822.85416666666</v>
+        <v>45823.16666666666</v>
       </c>
       <c r="B227">
         <v>0</v>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="F227" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G227" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H227">
         <v>0</v>
@@ -7775,7 +7775,7 @@
     </row>
     <row r="228" spans="1:10">
       <c r="A228" s="2">
-        <v>45822.875</v>
+        <v>45823.1875</v>
       </c>
       <c r="B228">
         <v>0</v>
@@ -7790,10 +7790,10 @@
         <v>0</v>
       </c>
       <c r="F228" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G228" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H228">
         <v>0</v>
@@ -7807,7 +7807,7 @@
     </row>
     <row r="229" spans="1:10">
       <c r="A229" s="2">
-        <v>45822.89583333334</v>
+        <v>45823.1875</v>
       </c>
       <c r="B229">
         <v>0</v>
@@ -7822,7 +7822,7 @@
         <v>0</v>
       </c>
       <c r="F229" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G229" t="s">
         <v>35</v>
@@ -7839,7 +7839,7 @@
     </row>
     <row r="230" spans="1:10">
       <c r="A230" s="2">
-        <v>45822.91666666666</v>
+        <v>45823.1875</v>
       </c>
       <c r="B230">
         <v>0</v>
@@ -7854,10 +7854,10 @@
         <v>0</v>
       </c>
       <c r="F230" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G230" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H230">
         <v>0</v>
@@ -7871,7 +7871,7 @@
     </row>
     <row r="231" spans="1:10">
       <c r="A231" s="2">
-        <v>45822.9375</v>
+        <v>45823.54166666666</v>
       </c>
       <c r="B231">
         <v>0</v>
@@ -7886,10 +7886,10 @@
         <v>0</v>
       </c>
       <c r="F231" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G231" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H231">
         <v>0</v>
@@ -7903,7 +7903,7 @@
     </row>
     <row r="232" spans="1:10">
       <c r="A232" s="2">
-        <v>45822.95833333334</v>
+        <v>45823.54166666666</v>
       </c>
       <c r="B232">
         <v>0</v>
@@ -7918,10 +7918,10 @@
         <v>0</v>
       </c>
       <c r="F232" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G232" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H232">
         <v>0</v>
@@ -7935,7 +7935,7 @@
     </row>
     <row r="233" spans="1:10">
       <c r="A233" s="2">
-        <v>45822.97916666666</v>
+        <v>45823.54166666666</v>
       </c>
       <c r="B233">
         <v>0</v>
@@ -7950,10 +7950,10 @@
         <v>0</v>
       </c>
       <c r="F233" s="3">
-        <v>45822</v>
+        <v>45823</v>
       </c>
       <c r="G233" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H233">
         <v>0</v>
@@ -7967,7 +7967,7 @@
     </row>
     <row r="234" spans="1:10">
       <c r="A234" s="2">
-        <v>45823</v>
+        <v>45823.5625</v>
       </c>
       <c r="B234">
         <v>0</v>
@@ -7985,7 +7985,7 @@
         <v>45823</v>
       </c>
       <c r="G234" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H234">
         <v>0</v>
@@ -7999,7 +7999,7 @@
     </row>
     <row r="235" spans="1:10">
       <c r="A235" s="2">
-        <v>45823.02083333334</v>
+        <v>45823.58333333334</v>
       </c>
       <c r="B235">
         <v>0</v>
@@ -8017,7 +8017,7 @@
         <v>45823</v>
       </c>
       <c r="G235" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="H235">
         <v>0</v>
@@ -8031,7 +8031,7 @@
     </row>
     <row r="236" spans="1:10">
       <c r="A236" s="2">
-        <v>45823.04166666666</v>
+        <v>45823.60416666666</v>
       </c>
       <c r="B236">
         <v>0</v>
@@ -8049,7 +8049,7 @@
         <v>45823</v>
       </c>
       <c r="G236" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H236">
         <v>0</v>
@@ -8063,7 +8063,7 @@
     </row>
     <row r="237" spans="1:10">
       <c r="A237" s="2">
-        <v>45823.0625</v>
+        <v>45823.625</v>
       </c>
       <c r="B237">
         <v>0</v>
@@ -8081,7 +8081,7 @@
         <v>45823</v>
       </c>
       <c r="G237" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H237">
         <v>0</v>
@@ -8095,7 +8095,7 @@
     </row>
     <row r="238" spans="1:10">
       <c r="A238" s="2">
-        <v>45823.08333333334</v>
+        <v>45823.64583333334</v>
       </c>
       <c r="B238">
         <v>0</v>
@@ -8113,7 +8113,7 @@
         <v>45823</v>
       </c>
       <c r="G238" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H238">
         <v>0</v>
@@ -8127,7 +8127,7 @@
     </row>
     <row r="239" spans="1:10">
       <c r="A239" s="2">
-        <v>45823.10416666666</v>
+        <v>45823.66666666666</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -8145,7 +8145,7 @@
         <v>45823</v>
       </c>
       <c r="G239" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H239">
         <v>0</v>
@@ -8159,7 +8159,7 @@
     </row>
     <row r="240" spans="1:10">
       <c r="A240" s="2">
-        <v>45823.125</v>
+        <v>45823.6875</v>
       </c>
       <c r="B240">
         <v>0</v>
@@ -8177,7 +8177,7 @@
         <v>45823</v>
       </c>
       <c r="G240" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H240">
         <v>0</v>
@@ -8191,7 +8191,7 @@
     </row>
     <row r="241" spans="1:10">
       <c r="A241" s="2">
-        <v>45823.14583333334</v>
+        <v>45823.70833333334</v>
       </c>
       <c r="B241">
         <v>0</v>
@@ -8209,7 +8209,7 @@
         <v>45823</v>
       </c>
       <c r="G241" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H241">
         <v>0</v>
@@ -8223,7 +8223,7 @@
     </row>
     <row r="242" spans="1:10">
       <c r="A242" s="2">
-        <v>45823.16666666666</v>
+        <v>45823.72916666666</v>
       </c>
       <c r="B242">
         <v>0</v>
@@ -8241,7 +8241,7 @@
         <v>45823</v>
       </c>
       <c r="G242" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H242">
         <v>0</v>
@@ -8255,7 +8255,7 @@
     </row>
     <row r="243" spans="1:10">
       <c r="A243" s="2">
-        <v>45823.16666666666</v>
+        <v>45823.75</v>
       </c>
       <c r="B243">
         <v>0</v>
@@ -8273,7 +8273,7 @@
         <v>45823</v>
       </c>
       <c r="G243" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H243">
         <v>0</v>
@@ -8287,7 +8287,7 @@
     </row>
     <row r="244" spans="1:10">
       <c r="A244" s="2">
-        <v>45823.16666666666</v>
+        <v>45823.77083333334</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -8319,7 +8319,7 @@
     </row>
     <row r="245" spans="1:10">
       <c r="A245" s="2">
-        <v>45823.1875</v>
+        <v>45823.79166666666</v>
       </c>
       <c r="B245">
         <v>0</v>
@@ -8351,7 +8351,7 @@
     </row>
     <row r="246" spans="1:10">
       <c r="A246" s="2">
-        <v>45823.1875</v>
+        <v>45823.8125</v>
       </c>
       <c r="B246">
         <v>0</v>
@@ -8369,7 +8369,7 @@
         <v>45823</v>
       </c>
       <c r="G246" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H246">
         <v>0</v>
@@ -8383,7 +8383,7 @@
     </row>
     <row r="247" spans="1:10">
       <c r="A247" s="2">
-        <v>45823.1875</v>
+        <v>45823.83333333334</v>
       </c>
       <c r="B247">
         <v>0</v>
@@ -8401,7 +8401,7 @@
         <v>45823</v>
       </c>
       <c r="G247" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H247">
         <v>0</v>
@@ -8415,7 +8415,7 @@
     </row>
     <row r="248" spans="1:10">
       <c r="A248" s="2">
-        <v>45823.54166666666</v>
+        <v>45823.85416666666</v>
       </c>
       <c r="B248">
         <v>0</v>
@@ -8433,7 +8433,7 @@
         <v>45823</v>
       </c>
       <c r="G248" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H248">
         <v>0</v>
@@ -8447,7 +8447,7 @@
     </row>
     <row r="249" spans="1:10">
       <c r="A249" s="2">
-        <v>45823.54166666666</v>
+        <v>45823.875</v>
       </c>
       <c r="B249">
         <v>0</v>
@@ -8465,7 +8465,7 @@
         <v>45823</v>
       </c>
       <c r="G249" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H249">
         <v>0</v>
@@ -8479,7 +8479,7 @@
     </row>
     <row r="250" spans="1:10">
       <c r="A250" s="2">
-        <v>45823.54166666666</v>
+        <v>45823.89583333334</v>
       </c>
       <c r="B250">
         <v>0</v>
@@ -8497,7 +8497,7 @@
         <v>45823</v>
       </c>
       <c r="G250" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H250">
         <v>0</v>
@@ -8511,7 +8511,7 @@
     </row>
     <row r="251" spans="1:10">
       <c r="A251" s="2">
-        <v>45823.5625</v>
+        <v>45823.91666666666</v>
       </c>
       <c r="B251">
         <v>0</v>
@@ -8529,7 +8529,7 @@
         <v>45823</v>
       </c>
       <c r="G251" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H251">
         <v>0</v>
@@ -8543,7 +8543,7 @@
     </row>
     <row r="252" spans="1:10">
       <c r="A252" s="2">
-        <v>45823.58333333334</v>
+        <v>45823.9375</v>
       </c>
       <c r="B252">
         <v>0</v>
@@ -8561,7 +8561,7 @@
         <v>45823</v>
       </c>
       <c r="G252" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H252">
         <v>0</v>
@@ -8575,7 +8575,7 @@
     </row>
     <row r="253" spans="1:10">
       <c r="A253" s="2">
-        <v>45823.60416666666</v>
+        <v>45823.95833333334</v>
       </c>
       <c r="B253">
         <v>0</v>
@@ -8593,7 +8593,7 @@
         <v>45823</v>
       </c>
       <c r="G253" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H253">
         <v>0</v>
@@ -8607,7 +8607,7 @@
     </row>
     <row r="254" spans="1:10">
       <c r="A254" s="2">
-        <v>45823.625</v>
+        <v>45823.97916666666</v>
       </c>
       <c r="B254">
         <v>0</v>
@@ -8625,7 +8625,7 @@
         <v>45823</v>
       </c>
       <c r="G254" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H254">
         <v>0</v>
@@ -8639,7 +8639,7 @@
     </row>
     <row r="255" spans="1:10">
       <c r="A255" s="2">
-        <v>45823.64583333334</v>
+        <v>45824</v>
       </c>
       <c r="B255">
         <v>0</v>
@@ -8654,10 +8654,10 @@
         <v>0</v>
       </c>
       <c r="F255" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G255" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H255">
         <v>0</v>
@@ -8671,7 +8671,7 @@
     </row>
     <row r="256" spans="1:10">
       <c r="A256" s="2">
-        <v>45823.66666666666</v>
+        <v>45824.02083333334</v>
       </c>
       <c r="B256">
         <v>0</v>
@@ -8686,10 +8686,10 @@
         <v>0</v>
       </c>
       <c r="F256" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G256" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H256">
         <v>0</v>
@@ -8703,7 +8703,7 @@
     </row>
     <row r="257" spans="1:10">
       <c r="A257" s="2">
-        <v>45823.6875</v>
+        <v>45824.04166666666</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -8718,10 +8718,10 @@
         <v>0</v>
       </c>
       <c r="F257" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G257" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H257">
         <v>0</v>
@@ -8735,7 +8735,7 @@
     </row>
     <row r="258" spans="1:10">
       <c r="A258" s="2">
-        <v>45823.70833333334</v>
+        <v>45824.0625</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -8750,10 +8750,10 @@
         <v>0</v>
       </c>
       <c r="F258" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G258" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H258">
         <v>0</v>
@@ -8767,7 +8767,7 @@
     </row>
     <row r="259" spans="1:10">
       <c r="A259" s="2">
-        <v>45823.72916666666</v>
+        <v>45824.08333333334</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -8782,10 +8782,10 @@
         <v>0</v>
       </c>
       <c r="F259" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G259" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H259">
         <v>0</v>
@@ -8799,7 +8799,7 @@
     </row>
     <row r="260" spans="1:10">
       <c r="A260" s="2">
-        <v>45823.75</v>
+        <v>45824.10416666666</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -8814,10 +8814,10 @@
         <v>0</v>
       </c>
       <c r="F260" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G260" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H260">
         <v>0</v>
@@ -8831,7 +8831,7 @@
     </row>
     <row r="261" spans="1:10">
       <c r="A261" s="2">
-        <v>45823.77083333334</v>
+        <v>45824.125</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -8846,10 +8846,10 @@
         <v>0</v>
       </c>
       <c r="F261" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G261" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H261">
         <v>0</v>
@@ -8863,7 +8863,7 @@
     </row>
     <row r="262" spans="1:10">
       <c r="A262" s="2">
-        <v>45823.79166666666</v>
+        <v>45824.14583333334</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -8878,10 +8878,10 @@
         <v>0</v>
       </c>
       <c r="F262" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G262" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H262">
         <v>0</v>
@@ -8895,7 +8895,7 @@
     </row>
     <row r="263" spans="1:10">
       <c r="A263" s="2">
-        <v>45823.8125</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -8910,10 +8910,10 @@
         <v>0</v>
       </c>
       <c r="F263" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G263" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H263">
         <v>0</v>
@@ -8927,7 +8927,7 @@
     </row>
     <row r="264" spans="1:10">
       <c r="A264" s="2">
-        <v>45823.83333333334</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B264">
         <v>0</v>
@@ -8942,10 +8942,10 @@
         <v>0</v>
       </c>
       <c r="F264" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G264" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H264">
         <v>0</v>
@@ -8959,7 +8959,7 @@
     </row>
     <row r="265" spans="1:10">
       <c r="A265" s="2">
-        <v>45823.85416666666</v>
+        <v>45824.16666666666</v>
       </c>
       <c r="B265">
         <v>0</v>
@@ -8974,10 +8974,10 @@
         <v>0</v>
       </c>
       <c r="F265" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G265" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H265">
         <v>0</v>
@@ -8991,7 +8991,7 @@
     </row>
     <row r="266" spans="1:10">
       <c r="A266" s="2">
-        <v>45823.875</v>
+        <v>45824.1875</v>
       </c>
       <c r="B266">
         <v>0</v>
@@ -9006,10 +9006,10 @@
         <v>0</v>
       </c>
       <c r="F266" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G266" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H266">
         <v>0</v>
@@ -9023,7 +9023,7 @@
     </row>
     <row r="267" spans="1:10">
       <c r="A267" s="2">
-        <v>45823.89583333334</v>
+        <v>45824.1875</v>
       </c>
       <c r="B267">
         <v>0</v>
@@ -9038,7 +9038,7 @@
         <v>0</v>
       </c>
       <c r="F267" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G267" t="s">
         <v>35</v>
@@ -9055,7 +9055,7 @@
     </row>
     <row r="268" spans="1:10">
       <c r="A268" s="2">
-        <v>45823.91666666666</v>
+        <v>45824.1875</v>
       </c>
       <c r="B268">
         <v>0</v>
@@ -9070,10 +9070,10 @@
         <v>0</v>
       </c>
       <c r="F268" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G268" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H268">
         <v>0</v>
@@ -9087,7 +9087,7 @@
     </row>
     <row r="269" spans="1:10">
       <c r="A269" s="2">
-        <v>45823.9375</v>
+        <v>45824.54166666666</v>
       </c>
       <c r="B269">
         <v>0</v>
@@ -9102,10 +9102,10 @@
         <v>0</v>
       </c>
       <c r="F269" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G269" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H269">
         <v>0</v>
@@ -9119,7 +9119,7 @@
     </row>
     <row r="270" spans="1:10">
       <c r="A270" s="2">
-        <v>45823.95833333334</v>
+        <v>45824.5625</v>
       </c>
       <c r="B270">
         <v>0</v>
@@ -9134,10 +9134,10 @@
         <v>0</v>
       </c>
       <c r="F270" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G270" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H270">
         <v>0</v>
@@ -9151,7 +9151,7 @@
     </row>
     <row r="271" spans="1:10">
       <c r="A271" s="2">
-        <v>45823.97916666666</v>
+        <v>45824.58333333334</v>
       </c>
       <c r="B271">
         <v>0</v>
@@ -9166,10 +9166,10 @@
         <v>0</v>
       </c>
       <c r="F271" s="3">
-        <v>45823</v>
+        <v>45824</v>
       </c>
       <c r="G271" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H271">
         <v>0</v>
@@ -9183,7 +9183,7 @@
     </row>
     <row r="272" spans="1:10">
       <c r="A272" s="2">
-        <v>45824</v>
+        <v>45824.60416666666</v>
       </c>
       <c r="B272">
         <v>0</v>
@@ -9201,7 +9201,7 @@
         <v>45824</v>
       </c>
       <c r="G272" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H272">
         <v>0</v>
@@ -9215,7 +9215,7 @@
     </row>
     <row r="273" spans="1:10">
       <c r="A273" s="2">
-        <v>45824.02083333334</v>
+        <v>45824.625</v>
       </c>
       <c r="B273">
         <v>0</v>
@@ -9233,7 +9233,7 @@
         <v>45824</v>
       </c>
       <c r="G273" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="H273">
         <v>0</v>
@@ -9247,7 +9247,7 @@
     </row>
     <row r="274" spans="1:10">
       <c r="A274" s="2">
-        <v>45824.04166666666</v>
+        <v>45824.64583333334</v>
       </c>
       <c r="B274">
         <v>0</v>
@@ -9279,7 +9279,7 @@
     </row>
     <row r="275" spans="1:10">
       <c r="A275" s="2">
-        <v>45824.0625</v>
+        <v>45824.66666666666</v>
       </c>
       <c r="B275">
         <v>0</v>
@@ -9311,7 +9311,7 @@
     </row>
     <row r="276" spans="1:10">
       <c r="A276" s="2">
-        <v>45824.08333333334</v>
+        <v>45824.6875</v>
       </c>
       <c r="B276">
         <v>0</v>
@@ -9343,7 +9343,7 @@
     </row>
     <row r="277" spans="1:10">
       <c r="A277" s="2">
-        <v>45824.10416666666</v>
+        <v>45824.70833333334</v>
       </c>
       <c r="B277">
         <v>0</v>
@@ -9375,7 +9375,7 @@
     </row>
     <row r="278" spans="1:10">
       <c r="A278" s="2">
-        <v>45824.125</v>
+        <v>45824.72916666666</v>
       </c>
       <c r="B278">
         <v>0</v>
@@ -9407,7 +9407,7 @@
     </row>
     <row r="279" spans="1:10">
       <c r="A279" s="2">
-        <v>45824.14583333334</v>
+        <v>45824.75</v>
       </c>
       <c r="B279">
         <v>0</v>
@@ -9439,7 +9439,7 @@
     </row>
     <row r="280" spans="1:10">
       <c r="A280" s="2">
-        <v>45824.16666666666</v>
+        <v>45824.77083333334</v>
       </c>
       <c r="B280">
         <v>0</v>
@@ -9471,7 +9471,7 @@
     </row>
     <row r="281" spans="1:10">
       <c r="A281" s="2">
-        <v>45824.16666666666</v>
+        <v>45824.79166666666</v>
       </c>
       <c r="B281">
         <v>0</v>
@@ -9489,7 +9489,7 @@
         <v>45824</v>
       </c>
       <c r="G281" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H281">
         <v>0</v>
@@ -9503,7 +9503,7 @@
     </row>
     <row r="282" spans="1:10">
       <c r="A282" s="2">
-        <v>45824.16666666666</v>
+        <v>45824.8125</v>
       </c>
       <c r="B282">
         <v>0</v>
@@ -9521,7 +9521,7 @@
         <v>45824</v>
       </c>
       <c r="G282" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H282">
         <v>0</v>
@@ -9535,7 +9535,7 @@
     </row>
     <row r="283" spans="1:10">
       <c r="A283" s="2">
-        <v>45824.1875</v>
+        <v>45824.83333333334</v>
       </c>
       <c r="B283">
         <v>0</v>
@@ -9553,7 +9553,7 @@
         <v>45824</v>
       </c>
       <c r="G283" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H283">
         <v>0</v>
@@ -9567,7 +9567,7 @@
     </row>
     <row r="284" spans="1:10">
       <c r="A284" s="2">
-        <v>45824.1875</v>
+        <v>45824.85416666666</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -9585,7 +9585,7 @@
         <v>45824</v>
       </c>
       <c r="G284" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="H284">
         <v>0</v>
@@ -9599,7 +9599,7 @@
     </row>
     <row r="285" spans="1:10">
       <c r="A285" s="2">
-        <v>45824.1875</v>
+        <v>45824.875</v>
       </c>
       <c r="B285">
         <v>0</v>
@@ -9617,7 +9617,7 @@
         <v>45824</v>
       </c>
       <c r="G285" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H285">
         <v>0</v>
@@ -9631,7 +9631,7 @@
     </row>
     <row r="286" spans="1:10">
       <c r="A286" s="2">
-        <v>45824.54166666666</v>
+        <v>45824.89583333334</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -9649,7 +9649,7 @@
         <v>45824</v>
       </c>
       <c r="G286" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H286">
         <v>0</v>
@@ -9663,7 +9663,7 @@
     </row>
     <row r="287" spans="1:10">
       <c r="A287" s="2">
-        <v>45824.5625</v>
+        <v>45824.91666666666</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -9681,7 +9681,7 @@
         <v>45824</v>
       </c>
       <c r="G287" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H287">
         <v>0</v>
@@ -9695,7 +9695,7 @@
     </row>
     <row r="288" spans="1:10">
       <c r="A288" s="2">
-        <v>45824.58333333334</v>
+        <v>45824.9375</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -9713,7 +9713,7 @@
         <v>45824</v>
       </c>
       <c r="G288" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H288">
         <v>0</v>
@@ -9727,7 +9727,7 @@
     </row>
     <row r="289" spans="1:10">
       <c r="A289" s="2">
-        <v>45824.60416666666</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B289">
         <v>0</v>
@@ -9742,10 +9742,10 @@
         <v>0</v>
       </c>
       <c r="F289" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G289" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="H289">
         <v>0</v>
@@ -9759,7 +9759,7 @@
     </row>
     <row r="290" spans="1:10">
       <c r="A290" s="2">
-        <v>45824.625</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B290">
         <v>0</v>
@@ -9774,10 +9774,10 @@
         <v>0</v>
       </c>
       <c r="F290" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G290" t="s">
-        <v>22</v>
+        <v>33</v>
       </c>
       <c r="H290">
         <v>0</v>
@@ -9791,7 +9791,7 @@
     </row>
     <row r="291" spans="1:10">
       <c r="A291" s="2">
-        <v>45824.64583333334</v>
+        <v>45825.125</v>
       </c>
       <c r="B291">
         <v>0</v>
@@ -9806,10 +9806,10 @@
         <v>0</v>
       </c>
       <c r="F291" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G291" t="s">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="H291">
         <v>0</v>
@@ -9823,7 +9823,7 @@
     </row>
     <row r="292" spans="1:10">
       <c r="A292" s="2">
-        <v>45824.66666666666</v>
+        <v>45825.14583333334</v>
       </c>
       <c r="B292">
         <v>0</v>
@@ -9838,10 +9838,10 @@
         <v>0</v>
       </c>
       <c r="F292" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G292" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="H292">
         <v>0</v>
@@ -9855,7 +9855,7 @@
     </row>
     <row r="293" spans="1:10">
       <c r="A293" s="2">
-        <v>45824.6875</v>
+        <v>45825.75</v>
       </c>
       <c r="B293">
         <v>0</v>
@@ -9870,10 +9870,10 @@
         <v>0</v>
       </c>
       <c r="F293" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G293" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="H293">
         <v>0</v>
@@ -9887,7 +9887,7 @@
     </row>
     <row r="294" spans="1:10">
       <c r="A294" s="2">
-        <v>45824.70833333334</v>
+        <v>45825.75</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -9902,10 +9902,10 @@
         <v>0</v>
       </c>
       <c r="F294" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G294" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="H294">
         <v>0</v>
@@ -9919,7 +9919,7 @@
     </row>
     <row r="295" spans="1:10">
       <c r="A295" s="2">
-        <v>45824.72916666666</v>
+        <v>45825.72916666666</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -9934,10 +9934,10 @@
         <v>0</v>
       </c>
       <c r="F295" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G295" t="s">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="H295">
         <v>0</v>
@@ -9951,7 +9951,7 @@
     </row>
     <row r="296" spans="1:10">
       <c r="A296" s="2">
-        <v>45824.75</v>
+        <v>45825.75</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -9966,10 +9966,10 @@
         <v>0</v>
       </c>
       <c r="F296" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G296" t="s">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="H296">
         <v>0</v>
@@ -9983,7 +9983,7 @@
     </row>
     <row r="297" spans="1:10">
       <c r="A297" s="2">
-        <v>45824.77083333334</v>
+        <v>45825.77083333334</v>
       </c>
       <c r="B297">
         <v>0</v>
@@ -9998,10 +9998,10 @@
         <v>0</v>
       </c>
       <c r="F297" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G297" t="s">
-        <v>29</v>
+        <v>16</v>
       </c>
       <c r="H297">
         <v>0</v>
@@ -10015,7 +10015,7 @@
     </row>
     <row r="298" spans="1:10">
       <c r="A298" s="2">
-        <v>45824.79166666666</v>
+        <v>45825.79166666666</v>
       </c>
       <c r="B298">
         <v>0</v>
@@ -10030,10 +10030,10 @@
         <v>0</v>
       </c>
       <c r="F298" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G298" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
       <c r="H298">
         <v>0</v>
@@ -10047,7 +10047,7 @@
     </row>
     <row r="299" spans="1:10">
       <c r="A299" s="2">
-        <v>45824.8125</v>
+        <v>45825.8125</v>
       </c>
       <c r="B299">
         <v>0</v>
@@ -10062,10 +10062,10 @@
         <v>0</v>
       </c>
       <c r="F299" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G299" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="H299">
         <v>0</v>
@@ -10079,7 +10079,7 @@
     </row>
     <row r="300" spans="1:10">
       <c r="A300" s="2">
-        <v>45824.83333333334</v>
+        <v>45825.83333333334</v>
       </c>
       <c r="B300">
         <v>0</v>
@@ -10094,10 +10094,10 @@
         <v>0</v>
       </c>
       <c r="F300" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G300" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="H300">
         <v>0</v>
@@ -10111,7 +10111,7 @@
     </row>
     <row r="301" spans="1:10">
       <c r="A301" s="2">
-        <v>45824.85416666666</v>
+        <v>45825.85416666666</v>
       </c>
       <c r="B301">
         <v>0</v>
@@ -10126,10 +10126,10 @@
         <v>0</v>
       </c>
       <c r="F301" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G301" t="s">
-        <v>33</v>
+        <v>20</v>
       </c>
       <c r="H301">
         <v>0</v>
@@ -10143,7 +10143,7 @@
     </row>
     <row r="302" spans="1:10">
       <c r="A302" s="2">
-        <v>45824.875</v>
+        <v>45825.875</v>
       </c>
       <c r="B302">
         <v>0</v>
@@ -10158,10 +10158,10 @@
         <v>0</v>
       </c>
       <c r="F302" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G302" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="H302">
         <v>0</v>
@@ -10175,7 +10175,7 @@
     </row>
     <row r="303" spans="1:10">
       <c r="A303" s="2">
-        <v>45824.89583333334</v>
+        <v>45825.89583333334</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -10190,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="F303" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G303" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="H303">
         <v>0</v>
@@ -10207,7 +10207,7 @@
     </row>
     <row r="304" spans="1:10">
       <c r="A304" s="2">
-        <v>45824.91666666666</v>
+        <v>45825.91666666666</v>
       </c>
       <c r="B304">
         <v>0</v>
@@ -10222,10 +10222,10 @@
         <v>0</v>
       </c>
       <c r="F304" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G304" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="H304">
         <v>0</v>
@@ -10239,7 +10239,7 @@
     </row>
     <row r="305" spans="1:10">
       <c r="A305" s="2">
-        <v>45824.9375</v>
+        <v>45825.9375</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -10254,10 +10254,10 @@
         <v>0</v>
       </c>
       <c r="F305" s="3">
-        <v>45824</v>
+        <v>45825</v>
       </c>
       <c r="G305" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="H305">
         <v>0</v>
@@ -10271,7 +10271,7 @@
     </row>
     <row r="306" spans="1:10">
       <c r="A306" s="2">
-        <v>45825.14583333334</v>
+        <v>45825.95833333334</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -10289,7 +10289,7 @@
         <v>45825</v>
       </c>
       <c r="G306" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H306">
         <v>0</v>
@@ -10303,7 +10303,7 @@
     </row>
     <row r="307" spans="1:10">
       <c r="A307" s="2">
-        <v>45825.14583333334</v>
+        <v>45825.97916666666</v>
       </c>
       <c r="B307">
         <v>0</v>
@@ -10321,7 +10321,7 @@
         <v>45825</v>
       </c>
       <c r="G307" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="H307">
         <v>0</v>
@@ -10335,7 +10335,7 @@
     </row>
     <row r="308" spans="1:10">
       <c r="A308" s="2">
-        <v>45825.125</v>
+        <v>45826</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -10350,10 +10350,10 @@
         <v>0</v>
       </c>
       <c r="F308" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G308" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="H308">
         <v>0</v>
@@ -10367,7 +10367,7 @@
     </row>
     <row r="309" spans="1:10">
       <c r="A309" s="2">
-        <v>45825.14583333334</v>
+        <v>45826.02083333334</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -10382,10 +10382,10 @@
         <v>0</v>
       </c>
       <c r="F309" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G309" t="s">
-        <v>15</v>
+        <v>41</v>
       </c>
       <c r="H309">
         <v>0</v>
@@ -10399,7 +10399,7 @@
     </row>
     <row r="310" spans="1:10">
       <c r="A310" s="2">
-        <v>45825.75</v>
+        <v>45826.04166666666</v>
       </c>
       <c r="B310">
         <v>0</v>
@@ -10414,7 +10414,7 @@
         <v>0</v>
       </c>
       <c r="F310" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G310" t="s">
         <v>28</v>
@@ -10431,7 +10431,7 @@
     </row>
     <row r="311" spans="1:10">
       <c r="A311" s="2">
-        <v>45825.75</v>
+        <v>45826.0625</v>
       </c>
       <c r="B311">
         <v>0</v>
@@ -10446,10 +10446,10 @@
         <v>0</v>
       </c>
       <c r="F311" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G311" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H311">
         <v>0</v>
@@ -10463,7 +10463,7 @@
     </row>
     <row r="312" spans="1:10">
       <c r="A312" s="2">
-        <v>45825.72916666666</v>
+        <v>45826.08333333334</v>
       </c>
       <c r="B312">
         <v>0</v>
@@ -10478,10 +10478,10 @@
         <v>0</v>
       </c>
       <c r="F312" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G312" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H312">
         <v>0</v>
@@ -10495,7 +10495,7 @@
     </row>
     <row r="313" spans="1:10">
       <c r="A313" s="2">
-        <v>45825.75</v>
+        <v>45826.10416666666</v>
       </c>
       <c r="B313">
         <v>0</v>
@@ -10510,10 +10510,10 @@
         <v>0</v>
       </c>
       <c r="F313" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G313" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="H313">
         <v>0</v>
@@ -10527,7 +10527,7 @@
     </row>
     <row r="314" spans="1:10">
       <c r="A314" s="2">
-        <v>45825.77083333334</v>
+        <v>45826.125</v>
       </c>
       <c r="B314">
         <v>0</v>
@@ -10542,10 +10542,10 @@
         <v>0</v>
       </c>
       <c r="F314" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G314" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="H314">
         <v>0</v>
@@ -10559,7 +10559,7 @@
     </row>
     <row r="315" spans="1:10">
       <c r="A315" s="2">
-        <v>45825.79166666666</v>
+        <v>45826.14583333334</v>
       </c>
       <c r="B315">
         <v>0</v>
@@ -10574,10 +10574,10 @@
         <v>0</v>
       </c>
       <c r="F315" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G315" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="H315">
         <v>0</v>
@@ -10591,7 +10591,7 @@
     </row>
     <row r="316" spans="1:10">
       <c r="A316" s="2">
-        <v>45825.8125</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B316">
         <v>0</v>
@@ -10606,10 +10606,10 @@
         <v>0</v>
       </c>
       <c r="F316" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G316" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H316">
         <v>0</v>
@@ -10623,7 +10623,7 @@
     </row>
     <row r="317" spans="1:10">
       <c r="A317" s="2">
-        <v>45825.83333333334</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B317">
         <v>0</v>
@@ -10638,10 +10638,10 @@
         <v>0</v>
       </c>
       <c r="F317" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G317" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H317">
         <v>0</v>
@@ -10655,7 +10655,7 @@
     </row>
     <row r="318" spans="1:10">
       <c r="A318" s="2">
-        <v>45825.85416666666</v>
+        <v>45826.16666666666</v>
       </c>
       <c r="B318">
         <v>0</v>
@@ -10670,10 +10670,10 @@
         <v>0</v>
       </c>
       <c r="F318" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G318" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H318">
         <v>0</v>
@@ -10687,7 +10687,7 @@
     </row>
     <row r="319" spans="1:10">
       <c r="A319" s="2">
-        <v>45825.875</v>
+        <v>45826.1875</v>
       </c>
       <c r="B319">
         <v>0</v>
@@ -10702,10 +10702,10 @@
         <v>0</v>
       </c>
       <c r="F319" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G319" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H319">
         <v>0</v>
@@ -10719,7 +10719,7 @@
     </row>
     <row r="320" spans="1:10">
       <c r="A320" s="2">
-        <v>45825.89583333334</v>
+        <v>45826.1875</v>
       </c>
       <c r="B320">
         <v>0</v>
@@ -10734,7 +10734,7 @@
         <v>0</v>
       </c>
       <c r="F320" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G320" t="s">
         <v>35</v>
@@ -10751,7 +10751,7 @@
     </row>
     <row r="321" spans="1:10">
       <c r="A321" s="2">
-        <v>45825.91666666666</v>
+        <v>45826.1875</v>
       </c>
       <c r="B321">
         <v>0</v>
@@ -10766,10 +10766,10 @@
         <v>0</v>
       </c>
       <c r="F321" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G321" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="H321">
         <v>0</v>
@@ -10783,7 +10783,7 @@
     </row>
     <row r="322" spans="1:10">
       <c r="A322" s="2">
-        <v>45825.9375</v>
+        <v>45826.54166666666</v>
       </c>
       <c r="B322">
         <v>0</v>
@@ -10798,10 +10798,10 @@
         <v>0</v>
       </c>
       <c r="F322" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G322" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H322">
         <v>0</v>
@@ -10815,7 +10815,7 @@
     </row>
     <row r="323" spans="1:10">
       <c r="A323" s="2">
-        <v>45825.95833333334</v>
+        <v>45826.5625</v>
       </c>
       <c r="B323">
         <v>0</v>
@@ -10830,10 +10830,10 @@
         <v>0</v>
       </c>
       <c r="F323" s="3">
-        <v>45825</v>
+        <v>45826</v>
       </c>
       <c r="G323" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H323">
         <v>0</v>
@@ -10847,7 +10847,7 @@
     </row>
     <row r="324" spans="1:10">
       <c r="A324" s="2">
-        <v>45825.97916666666</v>
+        <v>45827.625</v>
       </c>
       <c r="B324">
         <v>0</v>
@@ -10862,10 +10862,10 @@
         <v>0</v>
       </c>
       <c r="F324" s="3">
-        <v>45825</v>
+        <v>45827</v>
       </c>
       <c r="G324" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H324">
         <v>0</v>
@@ -10879,7 +10879,7 @@
     </row>
     <row r="325" spans="1:10">
       <c r="A325" s="2">
-        <v>45826</v>
+        <v>45827.64583333334</v>
       </c>
       <c r="B325">
         <v>0</v>
@@ -10894,10 +10894,10 @@
         <v>0</v>
       </c>
       <c r="F325" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G325" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="H325">
         <v>0</v>
@@ -10911,7 +10911,7 @@
     </row>
     <row r="326" spans="1:10">
       <c r="A326" s="2">
-        <v>45826.02083333334</v>
+        <v>45827.66666666666</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -10926,10 +10926,10 @@
         <v>0</v>
       </c>
       <c r="F326" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G326" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="H326">
         <v>0</v>
@@ -10943,7 +10943,7 @@
     </row>
     <row r="327" spans="1:10">
       <c r="A327" s="2">
-        <v>45826.04166666666</v>
+        <v>45827.6875</v>
       </c>
       <c r="B327">
         <v>0</v>
@@ -10958,10 +10958,10 @@
         <v>0</v>
       </c>
       <c r="F327" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G327" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="H327">
         <v>0</v>
@@ -10975,7 +10975,7 @@
     </row>
     <row r="328" spans="1:10">
       <c r="A328" s="2">
-        <v>45826.0625</v>
+        <v>45827.70833333334</v>
       </c>
       <c r="B328">
         <v>0</v>
@@ -10990,10 +10990,10 @@
         <v>0</v>
       </c>
       <c r="F328" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G328" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H328">
         <v>0</v>
@@ -11007,7 +11007,7 @@
     </row>
     <row r="329" spans="1:10">
       <c r="A329" s="2">
-        <v>45826.08333333334</v>
+        <v>45827.72916666666</v>
       </c>
       <c r="B329">
         <v>0</v>
@@ -11022,10 +11022,10 @@
         <v>0</v>
       </c>
       <c r="F329" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G329" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="H329">
         <v>0</v>
@@ -11039,7 +11039,7 @@
     </row>
     <row r="330" spans="1:10">
       <c r="A330" s="2">
-        <v>45826.10416666666</v>
+        <v>45827.75</v>
       </c>
       <c r="B330">
         <v>0</v>
@@ -11054,10 +11054,10 @@
         <v>0</v>
       </c>
       <c r="F330" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G330" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="H330">
         <v>0</v>
@@ -11071,7 +11071,7 @@
     </row>
     <row r="331" spans="1:10">
       <c r="A331" s="2">
-        <v>45826.125</v>
+        <v>45827.77083333334</v>
       </c>
       <c r="B331">
         <v>0</v>
@@ -11086,10 +11086,10 @@
         <v>0</v>
       </c>
       <c r="F331" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G331" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="H331">
         <v>0</v>
@@ -11103,7 +11103,7 @@
     </row>
     <row r="332" spans="1:10">
       <c r="A332" s="2">
-        <v>45826.14583333334</v>
+        <v>45827.79166666666</v>
       </c>
       <c r="B332">
         <v>0</v>
@@ -11118,10 +11118,10 @@
         <v>0</v>
       </c>
       <c r="F332" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G332" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="H332">
         <v>0</v>
@@ -11135,7 +11135,7 @@
     </row>
     <row r="333" spans="1:10">
       <c r="A333" s="2">
-        <v>45826.16666666666</v>
+        <v>45827.8125</v>
       </c>
       <c r="B333">
         <v>0</v>
@@ -11150,10 +11150,10 @@
         <v>0</v>
       </c>
       <c r="F333" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G333" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H333">
         <v>0</v>
@@ -11167,7 +11167,7 @@
     </row>
     <row r="334" spans="1:10">
       <c r="A334" s="2">
-        <v>45826.16666666666</v>
+        <v>45827.83333333334</v>
       </c>
       <c r="B334">
         <v>0</v>
@@ -11182,10 +11182,10 @@
         <v>0</v>
       </c>
       <c r="F334" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G334" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="H334">
         <v>0</v>
@@ -11199,7 +11199,7 @@
     </row>
     <row r="335" spans="1:10">
       <c r="A335" s="2">
-        <v>45826.16666666666</v>
+        <v>45827.85416666666</v>
       </c>
       <c r="B335">
         <v>0</v>
@@ -11214,10 +11214,10 @@
         <v>0</v>
       </c>
       <c r="F335" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G335" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="H335">
         <v>0</v>
@@ -11231,7 +11231,7 @@
     </row>
     <row r="336" spans="1:10">
       <c r="A336" s="2">
-        <v>45826.1875</v>
+        <v>45827.875</v>
       </c>
       <c r="B336">
         <v>0</v>
@@ -11246,10 +11246,10 @@
         <v>0</v>
       </c>
       <c r="F336" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G336" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="H336">
         <v>0</v>
@@ -11263,7 +11263,7 @@
     </row>
     <row r="337" spans="1:10">
       <c r="A337" s="2">
-        <v>45826.1875</v>
+        <v>45827.89583333334</v>
       </c>
       <c r="B337">
         <v>0</v>
@@ -11278,10 +11278,10 @@
         <v>0</v>
       </c>
       <c r="F337" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G337" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="H337">
         <v>0</v>
@@ -11295,7 +11295,7 @@
     </row>
     <row r="338" spans="1:10">
       <c r="A338" s="2">
-        <v>45826.1875</v>
+        <v>45827.91666666666</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -11310,10 +11310,10 @@
         <v>0</v>
       </c>
       <c r="F338" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G338" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="H338">
         <v>0</v>
@@ -11327,7 +11327,7 @@
     </row>
     <row r="339" spans="1:10">
       <c r="A339" s="2">
-        <v>45826.54166666666</v>
+        <v>45827.9375</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -11342,10 +11342,10 @@
         <v>0</v>
       </c>
       <c r="F339" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G339" t="s">
-        <v>18</v>
+        <v>24</v>
       </c>
       <c r="H339">
         <v>0</v>
@@ -11359,7 +11359,7 @@
     </row>
     <row r="340" spans="1:10">
       <c r="A340" s="2">
-        <v>45826.5625</v>
+        <v>45827.95833333334</v>
       </c>
       <c r="B340">
         <v>0</v>
@@ -11374,10 +11374,10 @@
         <v>0</v>
       </c>
       <c r="F340" s="3">
-        <v>45826</v>
+        <v>45827</v>
       </c>
       <c r="G340" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="H340">
         <v>0</v>
@@ -11391,7 +11391,7 @@
     </row>
     <row r="341" spans="1:10">
       <c r="A341" s="2">
-        <v>45827.625</v>
+        <v>45827.97916666666</v>
       </c>
       <c r="B341">
         <v>0</v>
@@ -11409,7 +11409,7 @@
         <v>45827</v>
       </c>
       <c r="G341" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H341">
         <v>0</v>
@@ -11423,7 +11423,7 @@
     </row>
     <row r="342" spans="1:10">
       <c r="A342" s="2">
-        <v>45827.64583333334</v>
+        <v>45828</v>
       </c>
       <c r="B342">
         <v>0</v>
@@ -11438,10 +11438,10 @@
         <v>0</v>
       </c>
       <c r="F342" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G342" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H342">
         <v>0</v>
@@ -11455,7 +11455,7 @@
     </row>
     <row r="343" spans="1:10">
       <c r="A343" s="2">
-        <v>45827.66666666666</v>
+        <v>45828.02083333334</v>
       </c>
       <c r="B343">
         <v>0</v>
@@ -11470,10 +11470,10 @@
         <v>0</v>
       </c>
       <c r="F343" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G343" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H343">
         <v>0</v>
@@ -11487,7 +11487,7 @@
     </row>
     <row r="344" spans="1:10">
       <c r="A344" s="2">
-        <v>45827.6875</v>
+        <v>45828.04166666666</v>
       </c>
       <c r="B344">
         <v>0</v>
@@ -11502,10 +11502,10 @@
         <v>0</v>
       </c>
       <c r="F344" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G344" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="H344">
         <v>0</v>
@@ -11519,7 +11519,7 @@
     </row>
     <row r="345" spans="1:10">
       <c r="A345" s="2">
-        <v>45827.70833333334</v>
+        <v>45828.0625</v>
       </c>
       <c r="B345">
         <v>0</v>
@@ -11534,10 +11534,10 @@
         <v>0</v>
       </c>
       <c r="F345" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G345" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="H345">
         <v>0</v>
@@ -11551,7 +11551,7 @@
     </row>
     <row r="346" spans="1:10">
       <c r="A346" s="2">
-        <v>45827.72916666666</v>
+        <v>45828.08333333334</v>
       </c>
       <c r="B346">
         <v>0</v>
@@ -11566,10 +11566,10 @@
         <v>0</v>
       </c>
       <c r="F346" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G346" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H346">
         <v>0</v>
@@ -11583,7 +11583,7 @@
     </row>
     <row r="347" spans="1:10">
       <c r="A347" s="2">
-        <v>45827.75</v>
+        <v>45828.08333333334</v>
       </c>
       <c r="B347">
         <v>0</v>
@@ -11598,10 +11598,10 @@
         <v>0</v>
       </c>
       <c r="F347" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G347" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="H347">
         <v>0</v>
@@ -11615,7 +11615,7 @@
     </row>
     <row r="348" spans="1:10">
       <c r="A348" s="2">
-        <v>45827.77083333334</v>
+        <v>45828.08333333334</v>
       </c>
       <c r="B348">
         <v>0</v>
@@ -11630,10 +11630,10 @@
         <v>0</v>
       </c>
       <c r="F348" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G348" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H348">
         <v>0</v>
@@ -11647,7 +11647,7 @@
     </row>
     <row r="349" spans="1:10">
       <c r="A349" s="2">
-        <v>45827.79166666666</v>
+        <v>45828.10416666666</v>
       </c>
       <c r="B349">
         <v>0</v>
@@ -11662,10 +11662,10 @@
         <v>0</v>
       </c>
       <c r="F349" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G349" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H349">
         <v>0</v>
@@ -11679,7 +11679,7 @@
     </row>
     <row r="350" spans="1:10">
       <c r="A350" s="2">
-        <v>45827.8125</v>
+        <v>45828.10416666666</v>
       </c>
       <c r="B350">
         <v>0</v>
@@ -11694,7 +11694,7 @@
         <v>0</v>
       </c>
       <c r="F350" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G350" t="s">
         <v>31</v>
@@ -11711,7 +11711,7 @@
     </row>
     <row r="351" spans="1:10">
       <c r="A351" s="2">
-        <v>45827.83333333334</v>
+        <v>45828.10416666666</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -11726,10 +11726,10 @@
         <v>0</v>
       </c>
       <c r="F351" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G351" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="H351">
         <v>0</v>
@@ -11743,7 +11743,7 @@
     </row>
     <row r="352" spans="1:10">
       <c r="A352" s="2">
-        <v>45827.85416666666</v>
+        <v>45828.125</v>
       </c>
       <c r="B352">
         <v>0</v>
@@ -11758,10 +11758,10 @@
         <v>0</v>
       </c>
       <c r="F352" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G352" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H352">
         <v>0</v>
@@ -11775,7 +11775,7 @@
     </row>
     <row r="353" spans="1:10">
       <c r="A353" s="2">
-        <v>45827.875</v>
+        <v>45828.125</v>
       </c>
       <c r="B353">
         <v>0</v>
@@ -11790,10 +11790,10 @@
         <v>0</v>
       </c>
       <c r="F353" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G353" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H353">
         <v>0</v>
@@ -11807,7 +11807,7 @@
     </row>
     <row r="354" spans="1:10">
       <c r="A354" s="2">
-        <v>45827.89583333334</v>
+        <v>45828.125</v>
       </c>
       <c r="B354">
         <v>0</v>
@@ -11822,10 +11822,10 @@
         <v>0</v>
       </c>
       <c r="F354" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G354" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H354">
         <v>0</v>
@@ -11839,7 +11839,7 @@
     </row>
     <row r="355" spans="1:10">
       <c r="A355" s="2">
-        <v>45827.91666666666</v>
+        <v>45828.14583333334</v>
       </c>
       <c r="B355">
         <v>0</v>
@@ -11854,10 +11854,10 @@
         <v>0</v>
       </c>
       <c r="F355" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G355" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H355">
         <v>0</v>
@@ -11871,7 +11871,7 @@
     </row>
     <row r="356" spans="1:10">
       <c r="A356" s="2">
-        <v>45827.9375</v>
+        <v>45828.14583333334</v>
       </c>
       <c r="B356">
         <v>0</v>
@@ -11886,10 +11886,10 @@
         <v>0</v>
       </c>
       <c r="F356" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G356" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="H356">
         <v>0</v>
@@ -11903,7 +11903,7 @@
     </row>
     <row r="357" spans="1:10">
       <c r="A357" s="2">
-        <v>45827.95833333334</v>
+        <v>45828.14583333334</v>
       </c>
       <c r="B357">
         <v>0</v>
@@ -11918,10 +11918,10 @@
         <v>0</v>
       </c>
       <c r="F357" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G357" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="H357">
         <v>0</v>
@@ -11935,7 +11935,7 @@
     </row>
     <row r="358" spans="1:10">
       <c r="A358" s="2">
-        <v>45827.97916666666</v>
+        <v>45828.16666666666</v>
       </c>
       <c r="B358">
         <v>0</v>
@@ -11950,10 +11950,10 @@
         <v>0</v>
       </c>
       <c r="F358" s="3">
-        <v>45827</v>
+        <v>45828</v>
       </c>
       <c r="G358" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="H358">
         <v>0</v>
@@ -11967,7 +11967,7 @@
     </row>
     <row r="359" spans="1:10">
       <c r="A359" s="2">
-        <v>45828</v>
+        <v>45828.1875</v>
       </c>
       <c r="B359">
         <v>0</v>
@@ -11985,7 +11985,7 @@
         <v>45828</v>
       </c>
       <c r="G359" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="H359">
         <v>0</v>
@@ -11999,7 +11999,7 @@
     </row>
     <row r="360" spans="1:10">
       <c r="A360" s="2">
-        <v>45828.02083333334</v>
+        <v>45828.1875</v>
       </c>
       <c r="B360">
         <v>0</v>
@@ -12017,7 +12017,7 @@
         <v>45828</v>
       </c>
       <c r="G360" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="H360">
         <v>0</v>
@@ -12031,7 +12031,7 @@
     </row>
     <row r="361" spans="1:10">
       <c r="A361" s="2">
-        <v>45828.04166666666</v>
+        <v>45828.1875</v>
       </c>
       <c r="B361">
         <v>0</v>
@@ -12049,7 +12049,7 @@
         <v>45828</v>
       </c>
       <c r="G361" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="H361">
         <v>0</v>
@@ -12063,7 +12063,7 @@
     </row>
     <row r="362" spans="1:10">
       <c r="A362" s="2">
-        <v>45828.0625</v>
+        <v>45828.54166666666</v>
       </c>
       <c r="B362">
         <v>0</v>
@@ -12081,7 +12081,7 @@
         <v>45828</v>
       </c>
       <c r="G362" t="s">
-        <v>11</v>
+        <v>36</v>
       </c>
       <c r="H362">
         <v>0</v>
@@ -12095,7 +12095,7 @@
     </row>
     <row r="363" spans="1:10">
       <c r="A363" s="2">
-        <v>45828.08333333334</v>
+        <v>45828.54166666666</v>
       </c>
       <c r="B363">
         <v>0</v>
@@ -12113,7 +12113,7 @@
         <v>45828</v>
       </c>
       <c r="G363" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H363">
         <v>0</v>
@@ -12127,7 +12127,7 @@
     </row>
     <row r="364" spans="1:10">
       <c r="A364" s="2">
-        <v>45828.08333333334</v>
+        <v>45828.54166666666</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -12145,7 +12145,7 @@
         <v>45828</v>
       </c>
       <c r="G364" t="s">
-        <v>12</v>
+        <v>36</v>
       </c>
       <c r="H364">
         <v>0</v>
@@ -12159,7 +12159,7 @@
     </row>
     <row r="365" spans="1:10">
       <c r="A365" s="2">
-        <v>45828.08333333334</v>
+        <v>45828.5625</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -12177,7 +12177,7 @@
         <v>45828</v>
       </c>
       <c r="G365" t="s">
-        <v>12</v>
+        <v>37</v>
       </c>
       <c r="H365">
         <v>0</v>
@@ -12191,7 +12191,7 @@
     </row>
     <row r="366" spans="1:10">
       <c r="A366" s="2">
-        <v>45828.10416666666</v>
+        <v>45828.58333333334</v>
       </c>
       <c r="B366">
         <v>0</v>
@@ -12209,7 +12209,7 @@
         <v>45828</v>
       </c>
       <c r="G366" t="s">
-        <v>13</v>
+        <v>38</v>
       </c>
       <c r="H366">
         <v>0</v>
@@ -12223,7 +12223,7 @@
     </row>
     <row r="367" spans="1:10">
       <c r="A367" s="2">
-        <v>45828.10416666666</v>
+        <v>45828.60416666666</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -12241,7 +12241,7 @@
         <v>45828</v>
       </c>
       <c r="G367" t="s">
-        <v>13</v>
+        <v>39</v>
       </c>
       <c r="H367">
         <v>0</v>
@@ -12255,7 +12255,7 @@
     </row>
     <row r="368" spans="1:10">
       <c r="A368" s="2">
-        <v>45828.10416666666</v>
+        <v>45828.625</v>
       </c>
       <c r="B368">
         <v>0</v>
@@ -12273,7 +12273,7 @@
         <v>45828</v>
       </c>
       <c r="G368" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="H368">
         <v>0</v>
@@ -12287,7 +12287,7 @@
     </row>
     <row r="369" spans="1:10">
       <c r="A369" s="2">
-        <v>45828.125</v>
+        <v>45828.64583333334</v>
       </c>
       <c r="B369">
         <v>0</v>
@@ -12305,7 +12305,7 @@
         <v>45828</v>
       </c>
       <c r="G369" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="H369">
         <v>0</v>
@@ -12319,7 +12319,7 @@
     </row>
     <row r="370" spans="1:10">
       <c r="A370" s="2">
-        <v>45828.125</v>
+        <v>45828.66666666666</v>
       </c>
       <c r="B370">
         <v>0</v>
@@ -12337,7 +12337,7 @@
         <v>45828</v>
       </c>
       <c r="G370" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="H370">
         <v>0</v>
@@ -12351,7 +12351,7 @@
     </row>
     <row r="371" spans="1:10">
       <c r="A371" s="2">
-        <v>45828.125</v>
+        <v>45828.6875</v>
       </c>
       <c r="B371">
         <v>0</v>
@@ -12369,7 +12369,7 @@
         <v>45828</v>
       </c>
       <c r="G371" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H371">
         <v>0</v>
@@ -12383,7 +12383,7 @@
     </row>
     <row r="372" spans="1:10">
       <c r="A372" s="2">
-        <v>45828.14583333334</v>
+        <v>45828.70833333334</v>
       </c>
       <c r="B372">
         <v>0</v>
@@ -12401,7 +12401,7 @@
         <v>45828</v>
       </c>
       <c r="G372" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H372">
         <v>0</v>
@@ -12415,7 +12415,7 @@
     </row>
     <row r="373" spans="1:10">
       <c r="A373" s="2">
-        <v>45828.14583333334</v>
+        <v>45828.72916666666</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -12433,7 +12433,7 @@
         <v>45828</v>
       </c>
       <c r="G373" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="H373">
         <v>0</v>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="374" spans="1:10">
       <c r="A374" s="2">
-        <v>45828.14583333334</v>
+        <v>45828.75</v>
       </c>
       <c r="B374">
         <v>0</v>
@@ -12479,7 +12479,7 @@
     </row>
     <row r="375" spans="1:10">
       <c r="A375" s="2">
-        <v>45828.16666666666</v>
+        <v>45828.77083333334</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -12511,7 +12511,7 @@
     </row>
     <row r="376" spans="1:10">
       <c r="A376" s="2">
-        <v>45828.1875</v>
+        <v>45828.79166666666</v>
       </c>
       <c r="B376">
         <v>0</v>
@@ -12543,7 +12543,7 @@
     </row>
     <row r="377" spans="1:10">
       <c r="A377" s="2">
-        <v>45828.1875</v>
+        <v>45828.8125</v>
       </c>
       <c r="B377">
         <v>0</v>
@@ -12561,7 +12561,7 @@
         <v>45828</v>
       </c>
       <c r="G377" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H377">
         <v>0</v>
@@ -12575,7 +12575,7 @@
     </row>
     <row r="378" spans="1:10">
       <c r="A378" s="2">
-        <v>45828.1875</v>
+        <v>45828.83333333334</v>
       </c>
       <c r="B378">
         <v>0</v>
@@ -12593,7 +12593,7 @@
         <v>45828</v>
       </c>
       <c r="G378" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H378">
         <v>0</v>
@@ -12607,7 +12607,7 @@
     </row>
     <row r="379" spans="1:10">
       <c r="A379" s="2">
-        <v>45828.54166666666</v>
+        <v>45828.85416666666</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -12625,7 +12625,7 @@
         <v>45828</v>
       </c>
       <c r="G379" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H379">
         <v>0</v>
@@ -12639,7 +12639,7 @@
     </row>
     <row r="380" spans="1:10">
       <c r="A380" s="2">
-        <v>45828.54166666666</v>
+        <v>45828.875</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -12657,7 +12657,7 @@
         <v>45828</v>
       </c>
       <c r="G380" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H380">
         <v>0</v>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="381" spans="1:10">
       <c r="A381" s="2">
-        <v>45828.54166666666</v>
+        <v>45828.89583333334</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -12689,7 +12689,7 @@
         <v>45828</v>
       </c>
       <c r="G381" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H381">
         <v>0</v>
@@ -12703,7 +12703,7 @@
     </row>
     <row r="382" spans="1:10">
       <c r="A382" s="2">
-        <v>45828.5625</v>
+        <v>45828.91666666666</v>
       </c>
       <c r="B382">
         <v>0</v>
@@ -12721,7 +12721,7 @@
         <v>45828</v>
       </c>
       <c r="G382" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H382">
         <v>0</v>
@@ -12735,7 +12735,7 @@
     </row>
     <row r="383" spans="1:10">
       <c r="A383" s="2">
-        <v>45828.58333333334</v>
+        <v>45828.9375</v>
       </c>
       <c r="B383">
         <v>0</v>
@@ -12753,7 +12753,7 @@
         <v>45828</v>
       </c>
       <c r="G383" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H383">
         <v>0</v>
@@ -12767,7 +12767,7 @@
     </row>
     <row r="384" spans="1:10">
       <c r="A384" s="2">
-        <v>45828.60416666666</v>
+        <v>45828.95833333334</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -12785,7 +12785,7 @@
         <v>45828</v>
       </c>
       <c r="G384" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="H384">
         <v>0</v>
@@ -12799,7 +12799,7 @@
     </row>
     <row r="385" spans="1:10">
       <c r="A385" s="2">
-        <v>45828.625</v>
+        <v>45828.97916666666</v>
       </c>
       <c r="B385">
         <v>0</v>
@@ -12817,7 +12817,7 @@
         <v>45828</v>
       </c>
       <c r="G385" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="H385">
         <v>0</v>
@@ -12831,7 +12831,7 @@
     </row>
     <row r="386" spans="1:10">
       <c r="A386" s="2">
-        <v>45828.64583333334</v>
+        <v>45829</v>
       </c>
       <c r="B386">
         <v>0</v>
@@ -12846,10 +12846,10 @@
         <v>0</v>
       </c>
       <c r="F386" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G386" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="H386">
         <v>0</v>
@@ -12863,7 +12863,7 @@
     </row>
     <row r="387" spans="1:10">
       <c r="A387" s="2">
-        <v>45828.66666666666</v>
+        <v>45829.04166666666</v>
       </c>
       <c r="B387">
         <v>0</v>
@@ -12878,10 +12878,10 @@
         <v>0</v>
       </c>
       <c r="F387" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G387" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="H387">
         <v>0</v>
@@ -12895,7 +12895,7 @@
     </row>
     <row r="388" spans="1:10">
       <c r="A388" s="2">
-        <v>45828.6875</v>
+        <v>45829.0625</v>
       </c>
       <c r="B388">
         <v>0</v>
@@ -12910,10 +12910,10 @@
         <v>0</v>
       </c>
       <c r="F388" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G388" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H388">
         <v>0</v>
@@ -12927,7 +12927,7 @@
     </row>
     <row r="389" spans="1:10">
       <c r="A389" s="2">
-        <v>45828.70833333334</v>
+        <v>45829.08333333334</v>
       </c>
       <c r="B389">
         <v>0</v>
@@ -12942,10 +12942,10 @@
         <v>0</v>
       </c>
       <c r="F389" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G389" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H389">
         <v>0</v>
@@ -12959,7 +12959,7 @@
     </row>
     <row r="390" spans="1:10">
       <c r="A390" s="2">
-        <v>45828.72916666666</v>
+        <v>45829.10416666666</v>
       </c>
       <c r="B390">
         <v>0</v>
@@ -12974,10 +12974,10 @@
         <v>0</v>
       </c>
       <c r="F390" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G390" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="H390">
         <v>0</v>
@@ -12991,7 +12991,7 @@
     </row>
     <row r="391" spans="1:10">
       <c r="A391" s="2">
-        <v>45828.75</v>
+        <v>45829.125</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -13006,10 +13006,10 @@
         <v>0</v>
       </c>
       <c r="F391" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G391" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="H391">
         <v>0</v>
@@ -13023,7 +13023,7 @@
     </row>
     <row r="392" spans="1:10">
       <c r="A392" s="2">
-        <v>45828.77083333334</v>
+        <v>45829.14583333334</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -13038,10 +13038,10 @@
         <v>0</v>
       </c>
       <c r="F392" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G392" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="H392">
         <v>0</v>
@@ -13055,7 +13055,7 @@
     </row>
     <row r="393" spans="1:10">
       <c r="A393" s="2">
-        <v>45828.79166666666</v>
+        <v>45829.16666666666</v>
       </c>
       <c r="B393">
         <v>0</v>
@@ -13070,10 +13070,10 @@
         <v>0</v>
       </c>
       <c r="F393" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G393" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="H393">
         <v>0</v>
@@ -13087,7 +13087,7 @@
     </row>
     <row r="394" spans="1:10">
       <c r="A394" s="2">
-        <v>45828.8125</v>
+        <v>45829.16666666666</v>
       </c>
       <c r="B394">
         <v>0</v>
@@ -13102,10 +13102,10 @@
         <v>0</v>
       </c>
       <c r="F394" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G394" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="H394">
         <v>0</v>
@@ -13119,7 +13119,7 @@
     </row>
     <row r="395" spans="1:10">
       <c r="A395" s="2">
-        <v>45828.83333333334</v>
+        <v>45829.16666666666</v>
       </c>
       <c r="B395">
         <v>0</v>
@@ -13134,10 +13134,10 @@
         <v>0</v>
       </c>
       <c r="F395" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G395" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="H395">
         <v>0</v>
@@ -13151,7 +13151,7 @@
     </row>
     <row r="396" spans="1:10">
       <c r="A396" s="2">
-        <v>45828.85416666666</v>
+        <v>45829.1875</v>
       </c>
       <c r="B396">
         <v>0</v>
@@ -13166,10 +13166,10 @@
         <v>0</v>
       </c>
       <c r="F396" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G396" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="H396">
         <v>0</v>
@@ -13183,7 +13183,7 @@
     </row>
     <row r="397" spans="1:10">
       <c r="A397" s="2">
-        <v>45828.875</v>
+        <v>45829.1875</v>
       </c>
       <c r="B397">
         <v>0</v>
@@ -13198,10 +13198,10 @@
         <v>0</v>
       </c>
       <c r="F397" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G397" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="H397">
         <v>0</v>
@@ -13215,7 +13215,7 @@
     </row>
     <row r="398" spans="1:10">
       <c r="A398" s="2">
-        <v>45828.89583333334</v>
+        <v>45829.1875</v>
       </c>
       <c r="B398">
         <v>0</v>
@@ -13230,7 +13230,7 @@
         <v>0</v>
       </c>
       <c r="F398" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G398" t="s">
         <v>35</v>
@@ -13247,7 +13247,7 @@
     </row>
     <row r="399" spans="1:10">
       <c r="A399" s="2">
-        <v>45828.91666666666</v>
+        <v>45829.54166666666</v>
       </c>
       <c r="B399">
         <v>0</v>
@@ -13262,7 +13262,7 @@
         <v>0</v>
       </c>
       <c r="F399" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G399" t="s">
         <v>36</v>
@@ -13279,7 +13279,7 @@
     </row>
     <row r="400" spans="1:10">
       <c r="A400" s="2">
-        <v>45828.9375</v>
+        <v>45829.54166666666</v>
       </c>
       <c r="B400">
         <v>0</v>
@@ -13294,10 +13294,10 @@
         <v>0</v>
       </c>
       <c r="F400" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G400" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="H400">
         <v>0</v>
@@ -13311,7 +13311,7 @@
     </row>
     <row r="401" spans="1:10">
       <c r="A401" s="2">
-        <v>45828.95833333334</v>
+        <v>45829.54166666666</v>
       </c>
       <c r="B401">
         <v>0</v>
@@ -13326,10 +13326,10 @@
         <v>0</v>
       </c>
       <c r="F401" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G401" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="H401">
         <v>0</v>
@@ -13343,7 +13343,7 @@
     </row>
     <row r="402" spans="1:10">
       <c r="A402" s="2">
-        <v>45828.97916666666</v>
+        <v>45829.5625</v>
       </c>
       <c r="B402">
         <v>0</v>
@@ -13358,10 +13358,10 @@
         <v>0</v>
       </c>
       <c r="F402" s="3">
-        <v>45828</v>
+        <v>45829</v>
       </c>
       <c r="G402" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="H402">
         <v>0</v>
@@ -13375,7 +13375,7 @@
     </row>
     <row r="403" spans="1:10">
       <c r="A403" s="2">
-        <v>45829</v>
+        <v>45829.58333333334</v>
       </c>
       <c r="B403">
         <v>0</v>
@@ -13393,7 +13393,7 @@
         <v>45829</v>
       </c>
       <c r="G403" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H403">
         <v>0</v>
@@ -13407,7 +13407,7 @@
     </row>
     <row r="404" spans="1:10">
       <c r="A404" s="2">
-        <v>45829.04166666666</v>
+        <v>45829.60416666666</v>
       </c>
       <c r="B404">
         <v>0</v>
@@ -13425,7 +13425,7 @@
         <v>45829</v>
       </c>
       <c r="G404" t="s">
-        <v>10</v>
+        <v>39</v>
       </c>
       <c r="H404">
         <v>0</v>
@@ -13439,7 +13439,7 @@
     </row>
     <row r="405" spans="1:10">
       <c r="A405" s="2">
-        <v>45829.0625</v>
+        <v>45829.625</v>
       </c>
       <c r="B405">
         <v>0</v>
@@ -13457,7 +13457,7 @@
         <v>45829</v>
       </c>
       <c r="G405" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="H405">
         <v>0</v>
@@ -13471,7 +13471,7 @@
     </row>
     <row r="406" spans="1:10">
       <c r="A406" s="2">
-        <v>45829.08333333334</v>
+        <v>45829.64583333334</v>
       </c>
       <c r="B406">
         <v>0</v>
@@ -13489,7 +13489,7 @@
         <v>45829</v>
       </c>
       <c r="G406" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H406">
         <v>0</v>
@@ -13503,7 +13503,7 @@
     </row>
     <row r="407" spans="1:10">
       <c r="A407" s="2">
-        <v>45829.10416666666</v>
+        <v>45829.66666666666</v>
       </c>
       <c r="B407">
         <v>0</v>
@@ -13521,7 +13521,7 @@
         <v>45829</v>
       </c>
       <c r="G407" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="H407">
         <v>0</v>
@@ -13535,7 +13535,7 @@
     </row>
     <row r="408" spans="1:10">
       <c r="A408" s="2">
-        <v>45829.125</v>
+        <v>45829.6875</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -13553,7 +13553,7 @@
         <v>45829</v>
       </c>
       <c r="G408" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H408">
         <v>0</v>
@@ -13567,7 +13567,7 @@
     </row>
     <row r="409" spans="1:10">
       <c r="A409" s="2">
-        <v>45829.14583333334</v>
+        <v>45829.70833333334</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -13585,7 +13585,7 @@
         <v>45829</v>
       </c>
       <c r="G409" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="H409">
         <v>0</v>
@@ -13599,7 +13599,7 @@
     </row>
     <row r="410" spans="1:10">
       <c r="A410" s="2">
-        <v>45829.16666666666</v>
+        <v>45829.72916666666</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -13617,7 +13617,7 @@
         <v>45829</v>
       </c>
       <c r="G410" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="H410">
         <v>0</v>
@@ -13631,7 +13631,7 @@
     </row>
     <row r="411" spans="1:10">
       <c r="A411" s="2">
-        <v>45829.16666666666</v>
+        <v>45829.75</v>
       </c>
       <c r="B411">
         <v>0</v>
@@ -13649,7 +13649,7 @@
         <v>45829</v>
       </c>
       <c r="G411" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="H411">
         <v>0</v>
@@ -13663,7 +13663,7 @@
     </row>
     <row r="412" spans="1:10">
       <c r="A412" s="2">
-        <v>45829.16666666666</v>
+        <v>45829.77083333334</v>
       </c>
       <c r="B412">
         <v>0</v>
@@ -13695,7 +13695,7 @@
     </row>
     <row r="413" spans="1:10">
       <c r="A413" s="2">
-        <v>45829.1875</v>
+        <v>45829.79166666666</v>
       </c>
       <c r="B413">
         <v>0</v>
@@ -13727,7 +13727,7 @@
     </row>
     <row r="414" spans="1:10">
       <c r="A414" s="2">
-        <v>45829.1875</v>
+        <v>45829.8125</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -13745,7 +13745,7 @@
         <v>45829</v>
       </c>
       <c r="G414" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H414">
         <v>0</v>
@@ -13759,7 +13759,7 @@
     </row>
     <row r="415" spans="1:10">
       <c r="A415" s="2">
-        <v>45829.1875</v>
+        <v>45829.83333333334</v>
       </c>
       <c r="B415">
         <v>0</v>
@@ -13777,7 +13777,7 @@
         <v>45829</v>
       </c>
       <c r="G415" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="H415">
         <v>0</v>
@@ -13791,7 +13791,7 @@
     </row>
     <row r="416" spans="1:10">
       <c r="A416" s="2">
-        <v>45829.54166666666</v>
+        <v>45829.85416666666</v>
       </c>
       <c r="B416">
         <v>0</v>
@@ -13809,7 +13809,7 @@
         <v>45829</v>
       </c>
       <c r="G416" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H416">
         <v>0</v>
@@ -13823,7 +13823,7 @@
     </row>
     <row r="417" spans="1:10">
       <c r="A417" s="2">
-        <v>45829.54166666666</v>
+        <v>45829.875</v>
       </c>
       <c r="B417">
         <v>0</v>
@@ -13841,7 +13841,7 @@
         <v>45829</v>
       </c>
       <c r="G417" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="H417">
         <v>0</v>
@@ -13855,7 +13855,7 @@
     </row>
     <row r="418" spans="1:10">
       <c r="A418" s="2">
-        <v>45829.54166666666</v>
+        <v>45829.89583333334</v>
       </c>
       <c r="B418">
         <v>0</v>
@@ -13873,7 +13873,7 @@
         <v>45829</v>
       </c>
       <c r="G418" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="H418">
         <v>0</v>
@@ -13887,7 +13887,7 @@
     </row>
     <row r="419" spans="1:10">
       <c r="A419" s="2">
-        <v>45829.5625</v>
+        <v>45829.91666666666</v>
       </c>
       <c r="B419">
         <v>0</v>
@@ -13905,7 +13905,7 @@
         <v>45829</v>
       </c>
       <c r="G419" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="H419">
         <v>0</v>
@@ -13919,7 +13919,7 @@
     </row>
     <row r="420" spans="1:10">
       <c r="A420" s="2">
-        <v>45829.58333333334</v>
+        <v>45829.9375</v>
       </c>
       <c r="B420">
         <v>0</v>
@@ -13937,7 +13937,7 @@
         <v>45829</v>
       </c>
       <c r="G420" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H420">
         <v>0</v>
@@ -13951,738 +13951,738 @@
     </row>
     <row r="421" spans="1:10">
       <c r="A421" s="2">
-        <v>45829.60416666666</v>
+        <v>45831.875</v>
       </c>
       <c r="B421">
-        <v>0</v>
+        <v>331</v>
       </c>
       <c r="C421">
-        <v>0</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D421">
-        <v>0</v>
+        <v>-24.47</v>
       </c>
       <c r="E421">
-        <v>0</v>
+        <v>2.187261329305137</v>
       </c>
       <c r="F421" s="3">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="G421" t="s">
         <v>21</v>
       </c>
       <c r="H421">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="I421">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J421">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="422" spans="1:10">
       <c r="A422" s="2">
-        <v>45829.625</v>
+        <v>45831.875</v>
       </c>
       <c r="B422">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="C422">
-        <v>0</v>
+        <v>9.56</v>
       </c>
       <c r="D422">
-        <v>0</v>
+        <v>-25.96</v>
       </c>
       <c r="E422">
-        <v>0</v>
+        <v>0.7435532051282081</v>
       </c>
       <c r="F422" s="3">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="G422" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H422">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="I422">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J422">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="423" spans="1:10">
       <c r="A423" s="2">
-        <v>45829.64583333334</v>
+        <v>45831.875</v>
       </c>
       <c r="B423">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="C423">
-        <v>0</v>
+        <v>9.56</v>
       </c>
       <c r="D423">
-        <v>0</v>
+        <v>-25.96</v>
       </c>
       <c r="E423">
-        <v>0</v>
+        <v>0.7435532051282081</v>
       </c>
       <c r="F423" s="3">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="G423" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="H423">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="I423">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J423">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="424" spans="1:10">
       <c r="A424" s="2">
-        <v>45829.66666666666</v>
+        <v>45831.91666666666</v>
       </c>
       <c r="B424">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="C424">
-        <v>0</v>
+        <v>9.56</v>
       </c>
       <c r="D424">
-        <v>0</v>
+        <v>-25.96</v>
       </c>
       <c r="E424">
-        <v>0</v>
+        <v>0.7435532051282081</v>
       </c>
       <c r="F424" s="3">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="G424" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H424">
-        <v>0</v>
+        <v>1062</v>
       </c>
       <c r="I424">
-        <v>0</v>
+        <v>174</v>
       </c>
       <c r="J424">
-        <v>0</v>
+        <v>117</v>
       </c>
     </row>
     <row r="425" spans="1:10">
       <c r="A425" s="2">
-        <v>45829.6875</v>
+        <v>45831.97916666666</v>
       </c>
       <c r="B425">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="C425">
-        <v>0</v>
+        <v>13.91</v>
       </c>
       <c r="D425">
-        <v>0</v>
+        <v>-25.88</v>
       </c>
       <c r="E425">
-        <v>0</v>
+        <v>1.422664420485177</v>
       </c>
       <c r="F425" s="3">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="G425" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="H425">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="I425">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J425">
-        <v>0</v>
+        <v>187</v>
       </c>
     </row>
     <row r="426" spans="1:10">
       <c r="A426" s="2">
-        <v>45829.70833333334</v>
+        <v>45831.97916666666</v>
       </c>
       <c r="B426">
-        <v>0</v>
+        <v>371</v>
       </c>
       <c r="C426">
-        <v>0</v>
+        <v>13.91</v>
       </c>
       <c r="D426">
-        <v>0</v>
+        <v>-25.88</v>
       </c>
       <c r="E426">
-        <v>0</v>
+        <v>1.422664420485177</v>
       </c>
       <c r="F426" s="3">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="G426" t="s">
         <v>26</v>
       </c>
       <c r="H426">
-        <v>0</v>
+        <v>1316</v>
       </c>
       <c r="I426">
-        <v>0</v>
+        <v>218</v>
       </c>
       <c r="J426">
-        <v>0</v>
+        <v>187</v>
       </c>
     </row>
     <row r="427" spans="1:10">
       <c r="A427" s="2">
-        <v>45829.72916666666</v>
+        <v>45831.97916666666</v>
       </c>
       <c r="B427">
-        <v>0</v>
+        <v>436</v>
       </c>
       <c r="C427">
-        <v>0</v>
+        <v>15.38</v>
       </c>
       <c r="D427">
-        <v>0</v>
+        <v>-25.53</v>
       </c>
       <c r="E427">
-        <v>0</v>
+        <v>1.930307798165142</v>
       </c>
       <c r="F427" s="3">
-        <v>45829</v>
+        <v>45831</v>
       </c>
       <c r="G427" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="H427">
-        <v>0</v>
+        <v>1518</v>
       </c>
       <c r="I427">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="J427">
-        <v>0</v>
+        <v>229</v>
       </c>
     </row>
     <row r="428" spans="1:10">
       <c r="A428" s="2">
-        <v>45829.75</v>
+        <v>45832</v>
       </c>
       <c r="B428">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="C428">
-        <v>0</v>
+        <v>14.96</v>
       </c>
       <c r="D428">
-        <v>0</v>
+        <v>-25.64</v>
       </c>
       <c r="E428">
-        <v>0</v>
+        <v>1.798622907488987</v>
       </c>
       <c r="F428" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G428" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H428">
-        <v>0</v>
+        <v>1583</v>
       </c>
       <c r="I428">
-        <v>0</v>
+        <v>252</v>
       </c>
       <c r="J428">
-        <v>0</v>
+        <v>233</v>
       </c>
     </row>
     <row r="429" spans="1:10">
       <c r="A429" s="2">
-        <v>45829.77083333334</v>
+        <v>45832.02083333334</v>
       </c>
       <c r="B429">
-        <v>0</v>
+        <v>468</v>
       </c>
       <c r="C429">
-        <v>0</v>
+        <v>15.44</v>
       </c>
       <c r="D429">
-        <v>0</v>
+        <v>-25.64</v>
       </c>
       <c r="E429">
-        <v>0</v>
+        <v>1.879552136752132</v>
       </c>
       <c r="F429" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G429" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="H429">
-        <v>0</v>
+        <v>1638</v>
       </c>
       <c r="I429">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="J429">
-        <v>0</v>
+        <v>243</v>
       </c>
     </row>
     <row r="430" spans="1:10">
       <c r="A430" s="2">
-        <v>45829.79166666666</v>
+        <v>45832.04166666666</v>
       </c>
       <c r="B430">
-        <v>0</v>
+        <v>488</v>
       </c>
       <c r="C430">
-        <v>0</v>
+        <v>14.98</v>
       </c>
       <c r="D430">
-        <v>0</v>
+        <v>-25.64</v>
       </c>
       <c r="E430">
-        <v>0</v>
+        <v>1.850543442622946</v>
       </c>
       <c r="F430" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G430" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="H430">
-        <v>0</v>
+        <v>1686</v>
       </c>
       <c r="I430">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="J430">
-        <v>0</v>
+        <v>249</v>
       </c>
     </row>
     <row r="431" spans="1:10">
       <c r="A431" s="2">
-        <v>45829.8125</v>
+        <v>45832.0625</v>
       </c>
       <c r="B431">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="C431">
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="D431">
-        <v>0</v>
+        <v>-25.8</v>
       </c>
       <c r="E431">
-        <v>0</v>
+        <v>1.654436575875483</v>
       </c>
       <c r="F431" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G431" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H431">
-        <v>0</v>
+        <v>1744</v>
       </c>
       <c r="I431">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="J431">
-        <v>0</v>
+        <v>254</v>
       </c>
     </row>
     <row r="432" spans="1:10">
       <c r="A432" s="2">
-        <v>45829.83333333334</v>
+        <v>45832.08333333334</v>
       </c>
       <c r="B432">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>14.43</v>
       </c>
       <c r="D432">
-        <v>0</v>
+        <v>-25.75</v>
       </c>
       <c r="E432">
-        <v>0</v>
+        <v>1.643005103969756</v>
       </c>
       <c r="F432" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G432" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H432">
-        <v>0</v>
+        <v>1801</v>
       </c>
       <c r="I432">
-        <v>0</v>
+        <v>279</v>
       </c>
       <c r="J432">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="433" spans="1:10">
       <c r="A433" s="2">
-        <v>45829.85416666666</v>
+        <v>45832.10416666666</v>
       </c>
       <c r="B433">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="C433">
-        <v>0</v>
+        <v>13.89</v>
       </c>
       <c r="D433">
-        <v>0</v>
+        <v>-25.84</v>
       </c>
       <c r="E433">
-        <v>0</v>
+        <v>1.501139781021902</v>
       </c>
       <c r="F433" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G433" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="H433">
-        <v>0</v>
+        <v>1854</v>
       </c>
       <c r="I433">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="J433">
-        <v>0</v>
+        <v>264</v>
       </c>
     </row>
     <row r="434" spans="1:10">
       <c r="A434" s="2">
-        <v>45829.875</v>
+        <v>45832.125</v>
       </c>
       <c r="B434">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>13.74</v>
       </c>
       <c r="D434">
-        <v>0</v>
+        <v>-25.84</v>
       </c>
       <c r="E434">
-        <v>0</v>
+        <v>1.473312811387899</v>
       </c>
       <c r="F434" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G434" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="H434">
-        <v>0</v>
+        <v>1917</v>
       </c>
       <c r="I434">
-        <v>0</v>
+        <v>288</v>
       </c>
       <c r="J434">
-        <v>0</v>
+        <v>269</v>
       </c>
     </row>
     <row r="435" spans="1:10">
       <c r="A435" s="2">
-        <v>45829.89583333334</v>
+        <v>45832.14583333334</v>
       </c>
       <c r="B435">
-        <v>0</v>
+        <v>578</v>
       </c>
       <c r="C435">
-        <v>0</v>
+        <v>14.07</v>
       </c>
       <c r="D435">
-        <v>0</v>
+        <v>-25.8</v>
       </c>
       <c r="E435">
-        <v>0</v>
+        <v>1.600703460207612</v>
       </c>
       <c r="F435" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G435" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="H435">
-        <v>0</v>
+        <v>1954</v>
       </c>
       <c r="I435">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="J435">
-        <v>0</v>
+        <v>277</v>
       </c>
     </row>
     <row r="436" spans="1:10">
       <c r="A436" s="2">
-        <v>45829.91666666666</v>
+        <v>45832.54166666666</v>
       </c>
       <c r="B436">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="C436">
-        <v>0</v>
+        <v>10.28</v>
       </c>
       <c r="D436">
-        <v>0</v>
+        <v>-26.41</v>
       </c>
       <c r="E436">
-        <v>0</v>
+        <v>0.03471367521367696</v>
       </c>
       <c r="F436" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G436" t="s">
         <v>36</v>
       </c>
       <c r="H436">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="I436">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="J436">
-        <v>0</v>
+        <v>54</v>
       </c>
     </row>
     <row r="437" spans="1:10">
       <c r="A437" s="2">
-        <v>45829.9375</v>
+        <v>45832.5625</v>
       </c>
       <c r="B437">
-        <v>0</v>
+        <v>138</v>
       </c>
       <c r="C437">
-        <v>0</v>
+        <v>8.59</v>
       </c>
       <c r="D437">
-        <v>0</v>
+        <v>-26.3</v>
       </c>
       <c r="E437">
-        <v>0</v>
+        <v>0.06138115942028932</v>
       </c>
       <c r="F437" s="3">
-        <v>45829</v>
+        <v>45832</v>
       </c>
       <c r="G437" t="s">
         <v>37</v>
       </c>
       <c r="H437">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="I437">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="J437">
-        <v>0</v>
+        <v>58</v>
       </c>
     </row>
     <row r="438" spans="1:10">
       <c r="A438" s="2">
-        <v>45831.875</v>
+        <v>45832.58333333334</v>
       </c>
       <c r="B438">
-        <v>331</v>
+        <v>160</v>
       </c>
       <c r="C438">
-        <v>8.970000000000001</v>
+        <v>8.779999999999999</v>
       </c>
       <c r="D438">
-        <v>-24.47</v>
+        <v>-26.06</v>
       </c>
       <c r="E438">
-        <v>2.187261329305137</v>
+        <v>0.2947650000000053</v>
       </c>
       <c r="F438" s="3">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="G438" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="H438">
-        <v>1062</v>
+        <v>529</v>
       </c>
       <c r="I438">
-        <v>174</v>
+        <v>80</v>
       </c>
       <c r="J438">
-        <v>117</v>
+        <v>66</v>
       </c>
     </row>
     <row r="439" spans="1:10">
       <c r="A439" s="2">
-        <v>45831.875</v>
+        <v>45832.60416666666</v>
       </c>
       <c r="B439">
-        <v>312</v>
+        <v>177</v>
       </c>
       <c r="C439">
-        <v>9.56</v>
+        <v>9.15</v>
       </c>
       <c r="D439">
-        <v>-25.96</v>
+        <v>-26.1</v>
       </c>
       <c r="E439">
-        <v>0.7435532051282081</v>
+        <v>0.3400209039548017</v>
       </c>
       <c r="F439" s="3">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="G439" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="H439">
-        <v>1062</v>
+        <v>578</v>
       </c>
       <c r="I439">
-        <v>174</v>
+        <v>90</v>
       </c>
       <c r="J439">
-        <v>117</v>
+        <v>71</v>
       </c>
     </row>
     <row r="440" spans="1:10">
       <c r="A440" s="2">
-        <v>45831.875</v>
+        <v>45832.625</v>
       </c>
       <c r="B440">
-        <v>312</v>
+        <v>200</v>
       </c>
       <c r="C440">
-        <v>9.56</v>
+        <v>9.73</v>
       </c>
       <c r="D440">
-        <v>-25.96</v>
+        <v>-25.95</v>
       </c>
       <c r="E440">
-        <v>0.7435532051282081</v>
+        <v>0.5648269999999975</v>
       </c>
       <c r="F440" s="3">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="G440" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="H440">
-        <v>1062</v>
+        <v>671</v>
       </c>
       <c r="I440">
-        <v>174</v>
+        <v>108</v>
       </c>
       <c r="J440">
-        <v>117</v>
+        <v>79</v>
       </c>
     </row>
     <row r="441" spans="1:10">
       <c r="A441" s="2">
-        <v>45831.91666666666</v>
+        <v>45832.64583333334</v>
       </c>
       <c r="B441">
-        <v>312</v>
+        <v>218</v>
       </c>
       <c r="C441">
-        <v>9.56</v>
+        <v>10.45</v>
       </c>
       <c r="D441">
-        <v>-25.96</v>
+        <v>-26.01</v>
       </c>
       <c r="E441">
-        <v>0.7435532051282081</v>
+        <v>0.5797321100917401</v>
       </c>
       <c r="F441" s="3">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="G441" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="H441">
-        <v>1062</v>
+        <v>734</v>
       </c>
       <c r="I441">
-        <v>174</v>
+        <v>124</v>
       </c>
       <c r="J441">
-        <v>117</v>
+        <v>93</v>
       </c>
     </row>
     <row r="442" spans="1:10">
       <c r="A442" s="2">
-        <v>45831.97916666666</v>
+        <v>45832.66666666666</v>
       </c>
       <c r="B442">
-        <v>371</v>
+        <v>237</v>
       </c>
       <c r="C442">
-        <v>13.91</v>
+        <v>10.23</v>
       </c>
       <c r="D442">
-        <v>-25.88</v>
+        <v>-25.7</v>
       </c>
       <c r="E442">
-        <v>1.422664420485177</v>
+        <v>0.6220434599156093</v>
       </c>
       <c r="F442" s="3">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="G442" t="s">
-        <v>39</v>
+        <v>11</v>
       </c>
       <c r="H442">
-        <v>1316</v>
+        <v>788</v>
       </c>
       <c r="I442">
-        <v>218</v>
+        <v>149</v>
       </c>
       <c r="J442">
-        <v>187</v>
+        <v>101</v>
       </c>
     </row>
     <row r="443" spans="1:10">
       <c r="A443" s="2">
-        <v>45831.97916666666</v>
+        <v>45832.6875</v>
       </c>
       <c r="B443">
-        <v>371</v>
+        <v>265</v>
       </c>
       <c r="C443">
-        <v>13.91</v>
+        <v>10.17</v>
       </c>
       <c r="D443">
-        <v>-25.88</v>
+        <v>-25.25</v>
       </c>
       <c r="E443">
-        <v>1.422664420485177</v>
+        <v>0.8029196226415074</v>
       </c>
       <c r="F443" s="3">
-        <v>45831</v>
+        <v>45832</v>
       </c>
       <c r="G443" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="H443">
-        <v>1316</v>
+        <v>886</v>
       </c>
       <c r="I443">
-        <v>218</v>
+        <v>167</v>
       </c>
       <c r="J443">
-        <v>187</v>
+        <v>109</v>
       </c>
     </row>
   </sheetData>
